--- a/Wave Math/Tone_calculator.xlsx
+++ b/Wave Math/Tone_calculator.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base tone" sheetId="1" r:id="rId1"/>
     <sheet name="A4" sheetId="2" r:id="rId2"/>
-    <sheet name="C5" sheetId="3" r:id="rId3"/>
-    <sheet name="E5" sheetId="4" r:id="rId4"/>
-    <sheet name="Chord Test" sheetId="5" r:id="rId5"/>
+    <sheet name="A4 test" sheetId="6" r:id="rId3"/>
+    <sheet name="C5" sheetId="3" r:id="rId4"/>
+    <sheet name="E5" sheetId="4" r:id="rId5"/>
+    <sheet name="Chord Test" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>step (binary)</t>
   </si>
@@ -983,11 +984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463687208"/>
-        <c:axId val="463682896"/>
+        <c:axId val="433611592"/>
+        <c:axId val="433613552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463687208"/>
+        <c:axId val="433611592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,12 +1045,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463682896"/>
+        <c:crossAx val="433613552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463682896"/>
+        <c:axId val="433613552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463687208"/>
+        <c:crossAx val="433611592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3723,8 +3724,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463683680"/>
-        <c:axId val="463684464"/>
+        <c:axId val="433613944"/>
+        <c:axId val="433614728"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -4472,7 +4473,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463683680"/>
+        <c:axId val="433613944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,12 +4529,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463684464"/>
+        <c:crossAx val="433614728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463684464"/>
+        <c:axId val="433614728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4590,7 +4591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463683680"/>
+        <c:crossAx val="433613944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6087,7 +6088,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7703,8 +7704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8069,6 +8070,13 @@
         <f t="shared" si="3"/>
         <v>0001001</v>
       </c>
+      <c r="M11">
+        <v>30820</v>
+      </c>
+      <c r="N11">
+        <f>M11*0.000001</f>
+        <v>3.082E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -11076,6 +11084,2369 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>1/48000*A2 *1000</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>SIN(RADIANS(D2))</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>IF(E2&gt;=0, E2*32767, E2*32767+32767*2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>DEC2HEX(F2, 4)</f>
+        <v>0000</v>
+      </c>
+      <c r="H2" t="str">
+        <f>DEC2BIN(A2,7)</f>
+        <v>0000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>B2+0.03082</f>
+        <v>3.082E-2</v>
+      </c>
+      <c r="D3">
+        <f>D2+360/75</f>
+        <v>4.8</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">SIN(RADIANS(D3))</f>
+        <v>8.3677843332315482E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">IF(E3&gt;=0, E3*32767, E3*32767+32767*2)</f>
+        <v>2741.8718924699815</v>
+      </c>
+      <c r="G3" t="str">
+        <f>DEC2HEX(F3, 4)</f>
+        <v>0AB5</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="2">DEC2BIN(A3,7)</f>
+        <v>0000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="3">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B67" si="4">B3+0.03082</f>
+        <v>6.164E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="5">D3+360/75</f>
+        <v>9.6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.16676874671610226</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>5464.5115236465226</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G67" si="6">DEC2HEX(F4, 4)</f>
+        <v>1558</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>0000010</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="4"/>
+        <v>9.2460000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="5"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.24868988716485474</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>8148.8215327307953</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="6"/>
+        <v>1FD4</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>0000011</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <f>1/N4</f>
+        <v>2.2727272727272726E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="4"/>
+        <v>0.12328</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>19.2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.32886664673858323</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>10775.973413683158</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="6"/>
+        <v>2A17</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>0000100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <f>N5*1000</f>
+        <v>2.2727272727272725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="4"/>
+        <v>0.15410000000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.40673664307580021</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>13327.539583664746</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="6"/>
+        <v>340F</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>0000101</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="4"/>
+        <v>0.18492000000000003</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="5"/>
+        <v>28.8</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.48175367410171532</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>15785.622639290907</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="6"/>
+        <v>3DA9</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>0000110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="4"/>
+        <v>0.21574000000000004</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>33.6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.55339154924334411</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>18132.980894056655</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="6"/>
+        <v>46D4</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>0000111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="4"/>
+        <v>0.24656000000000006</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>38.4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.6211477802783103</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>20353.149316379393</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="6"/>
+        <v>4F81</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>0001000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>0.27738000000000007</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.68454710592868862</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>22430.555019965341</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="6"/>
+        <v>579E</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>0001001</v>
+      </c>
+      <c r="M11">
+        <v>30820</v>
+      </c>
+      <c r="N11">
+        <f>M11*0.000001</f>
+        <v>3.082E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>0.30820000000000008</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>47.999999999999993</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.74314482547739413</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>24350.626496417775</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="6"/>
+        <v>5F1E</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>0001010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="4"/>
+        <v>0.3390200000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>52.79999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.79652991802419615</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>26099.895823898834</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="6"/>
+        <v>65F3</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>0001011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>0.36984000000000011</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>57.599999999999987</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.84432792550201496</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>27666.093134924526</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="6"/>
+        <v>6C12</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>0001100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>0.40066000000000013</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>62.399999999999984</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.88620357923121462</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>29038.232680669211</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="6"/>
+        <v>716E</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>0001101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>0.43148000000000014</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>67.199999999999989</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.92186315158850052</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>30206.689888100398</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="6"/>
+        <v>75FE</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>0001110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>0.46230000000000016</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>71.999999999999986</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>31163.268869443295</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="6"/>
+        <v>79BB</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>0001111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>0.49312000000000017</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>76.799999999999983</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.97357890287316018</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>31901.259910444838</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="6"/>
+        <v>7C9D</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>0010000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>0.52394000000000018</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>81.59999999999998</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.98927233296298833</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>32415.48653419824</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="6"/>
+        <v>7E9F</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>0010001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>0.55476000000000014</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>86.399999999999977</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.99802672842827156</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>32702.341810409172</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="6"/>
+        <v>7FBE</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>0010010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>0.5855800000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>91.199999999999974</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.9997806834748455</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>32759.813655420261</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="6"/>
+        <v>7FF7</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>0010011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>0.61640000000000006</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>95.999999999999972</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.9945218953682734</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>32587.498945532214</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="6"/>
+        <v>7F4B</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>0010100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>0.64722000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>100.79999999999997</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.98228725072868872</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>32186.606344626944</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="6"/>
+        <v>7DBA</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>0010101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>0.67803999999999998</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>105.59999999999997</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.96316256679765833</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>31559.947826258871</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="6"/>
+        <v>7B47</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>0010110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>0.70885999999999993</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>110.39999999999996</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.93728198949189179</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>30711.918949680818</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="6"/>
+        <v>77F7</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>0010111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>0.73967999999999989</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>115.19999999999996</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.90482705246601991</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>29648.468028154075</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="6"/>
+        <v>73D0</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>0011000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>0.77049999999999985</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>119.99999999999996</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.86602540378443893</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>28377.054405804709</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="6"/>
+        <v>6ED9</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>0011001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>0.80131999999999981</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>124.79999999999995</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.82114920913370459</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>26906.5961356841</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="6"/>
+        <v>691A</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>0011010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="4"/>
+        <v>0.83213999999999977</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>129.59999999999997</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.77051324277578948</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>25247.407426034293</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="6"/>
+        <v>629F</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>0011011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="4"/>
+        <v>0.86295999999999973</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>134.39999999999998</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.71447267963280359</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>23411.126293528076</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="6"/>
+        <v>5B73</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>0011100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>0.89377999999999969</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>139.19999999999999</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.6534206039901056</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>21410.63293094379</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="6"/>
+        <v>53A2</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>0011101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>0.92459999999999964</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.58778525229247325</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>19259.95936186747</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="6"/>
+        <v>4B3B</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>0011110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>0.9554199999999996</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>148.80000000000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.51802700937313018</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>16974.191016129356</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="6"/>
+        <v>424E</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>0011111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>0.98623999999999956</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>153.60000000000002</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.44463517918492734</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>14569.360916352514</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>38E9</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>0100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>1.0170599999999996</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>158.40000000000003</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.36812455268467731</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>12062.337217818822</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>2F1E</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>0100001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>1.0478799999999997</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>163.20000000000005</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.28903179694447084</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>9470.7048904794756</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>24FE</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>0100010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>A36+1</f>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>1.0786999999999998</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>168.00000000000006</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.20791169081775843</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>6812.6423730254901</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="6"/>
+        <v>1A9C</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>0100011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>1.1095199999999998</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>172.80000000000007</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.1253332335643032</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>4106.7940642015228</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="6"/>
+        <v>100A</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>0100100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>1.1403399999999999</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>177.60000000000008</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>4.1875653729198478E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1372.1395457446465</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="6"/>
+        <v>055C</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>0100101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>1.17116</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>182.40000000000009</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>-4.1875653729201337E-2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>64161.860454255257</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="6"/>
+        <v>FAA1</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>0100110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>1.20198</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>187.2000000000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>-0.12533323356430606</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>61427.205935798382</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="6"/>
+        <v>EFF3</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>0100111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>1.2328000000000001</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>192.00000000000011</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-0.20791169081776123</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>58721.357626974415</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>E561</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>0101000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>1.2636200000000002</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>196.80000000000013</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-0.28903179694447356</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>56063.295109520433</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>DAFF</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>0101001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>1.2944400000000003</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>201.60000000000014</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-0.36812455268467997</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>53471.662782181091</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>D0DF</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>0101010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>1.3252600000000003</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>206.40000000000015</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-0.44463517918492995</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>50964.639083647402</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="6"/>
+        <v>C714</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>0101011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>1.3560800000000004</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>211.20000000000016</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-0.51802700937313262</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>48559.808983870564</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="6"/>
+        <v>BDAF</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>0101100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>1.3869000000000005</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>216.00000000000017</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>-0.58778525229247558</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>46274.040638132457</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="6"/>
+        <v>B4C2</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>0101101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>1.4177200000000005</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>220.80000000000018</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-0.65342060399010782</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>44123.367069056141</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="6"/>
+        <v>AC5B</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>0101110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>1.4485400000000006</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="5"/>
+        <v>225.60000000000019</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>-0.71447267963280559</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>42122.873706471859</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="6"/>
+        <v>A48A</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>0101111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>1.4793600000000007</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>230.4000000000002</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>-0.77051324277579158</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>40286.592573965638</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>9D5E</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>0110000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>1.5101800000000007</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>235.20000000000022</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>-0.82114920913370626</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>38627.403864315842</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>96E3</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>0110001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>1.5410000000000008</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>240.00000000000023</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>-0.86602540378444059</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>37156.945594195233</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>9124</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>0110010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>1.5718200000000009</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>244.80000000000024</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-0.90482705246602124</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>35885.531971845878</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="6"/>
+        <v>8C2D</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>0110011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>1.602640000000001</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>249.60000000000025</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>-0.93728198949189301</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>34822.081050319146</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="6"/>
+        <v>8806</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>0110100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>1.633460000000001</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>254.40000000000026</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>-0.96316256679765933</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>33974.052173741096</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="6"/>
+        <v>84B6</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>0110101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>1.6642800000000011</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>259.20000000000027</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>-0.9822872507286895</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>33347.393655373031</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="6"/>
+        <v>8243</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>0110110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>1.6951000000000012</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>264.00000000000028</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>-0.99452189536827384</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>32946.501054467772</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="6"/>
+        <v>80B2</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>0110111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>1.7259200000000012</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>268.8000000000003</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>-0.99978068347484561</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>32774.186344579735</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>8006</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>0111000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>1.7567400000000013</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>273.60000000000031</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>-0.99802672842827123</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>32831.658189590838</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>803F</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>0111001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>1.7875600000000014</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>278.40000000000032</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>-0.98927233296298744</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>33118.513465801792</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>815E</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>0111010</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>1.8183800000000014</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>283.20000000000033</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>-0.97357890287315896</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>33632.740089555198</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="6"/>
+        <v>8360</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>0111011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>1.8492000000000015</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>288.00000000000034</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>-0.95105651629515175</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>34370.731130556764</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="6"/>
+        <v>8642</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>0111100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>1.8800200000000016</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>292.80000000000035</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>-0.92186315158849819</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>35327.310111899678</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="6"/>
+        <v>89FF</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>0111101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>1.9108400000000016</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>297.60000000000036</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>-0.88620357923121185</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>36495.76731933088</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="6"/>
+        <v>8E8F</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>0111110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="4"/>
+        <v>1.9416600000000017</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="5"/>
+        <v>302.40000000000038</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>-0.84432792550201163</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>37867.90686507558</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="6"/>
+        <v>93EB</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>0111111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>1.9724800000000018</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="5"/>
+        <v>307.20000000000039</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-0.79652991802419237</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>39434.104176101289</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="6"/>
+        <v>9A0A</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>2.0033000000000016</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="5"/>
+        <v>312.0000000000004</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E111" si="7">SIN(RADIANS(D67))</f>
+        <v>-0.7431448254773898</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F111" si="8">IF(E67&gt;=0, E67*32767, E67*32767+32767*2)</f>
+        <v>41183.373503582363</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="6"/>
+        <v>A0DF</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H111" si="9">DEC2BIN(A67,7)</f>
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A111" si="10">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B104" si="11">B67+0.03082</f>
+        <v>2.0341200000000015</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D77" si="12">D67+360/75</f>
+        <v>316.80000000000041</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="7"/>
+        <v>-0.68454710592868373</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>43103.444980034823</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" ref="G68:G111" si="13">DEC2HEX(F68, 4)</f>
+        <v>A85F</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="9"/>
+        <v>1000010</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="11"/>
+        <v>2.0649400000000013</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="12"/>
+        <v>321.60000000000042</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>-0.62114778027830497</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>45180.850683620782</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="13"/>
+        <v>B07C</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="9"/>
+        <v>1000011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="11"/>
+        <v>2.0957600000000012</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="12"/>
+        <v>326.40000000000043</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>-0.55339154924333755</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>47401.01910594356</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="13"/>
+        <v>B929</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="9"/>
+        <v>1000100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="11"/>
+        <v>2.126580000000001</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="12"/>
+        <v>331.20000000000044</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>-0.48175367410170833</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>49748.377360709324</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="13"/>
+        <v>C254</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="9"/>
+        <v>1000101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="11"/>
+        <v>2.1574000000000009</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="12"/>
+        <v>336.00000000000045</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>-0.40673664307579283</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>52206.460416335496</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="13"/>
+        <v>CBEE</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="9"/>
+        <v>1000110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="11"/>
+        <v>2.1882200000000007</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="12"/>
+        <v>340.80000000000047</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>-0.32886664673857552</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>54758.026586317093</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="13"/>
+        <v>D5E6</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="9"/>
+        <v>1000111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="11"/>
+        <v>2.2190400000000006</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="12"/>
+        <v>345.60000000000048</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>-0.24868988716484675</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>57385.178467269463</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="13"/>
+        <v>E029</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="9"/>
+        <v>1001000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="11"/>
+        <v>2.2498600000000004</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="12"/>
+        <v>350.40000000000049</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>-0.16676874671609399</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>60069.488476353748</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="13"/>
+        <v>EAA5</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="9"/>
+        <v>1001001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="11"/>
+        <v>2.2806800000000003</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="12"/>
+        <v>355.2000000000005</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>-8.3677843332307003E-2</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>62792.128107530298</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="13"/>
+        <v>F548</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="9"/>
+        <v>1001010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="11"/>
+        <v>2.3115000000000001</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="12"/>
+        <v>360.00000000000051</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>8.6367545060195283E-15</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>2.8300053489874188E-10</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="13"/>
+        <v>0000</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="9"/>
+        <v>1001011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N94"/>
   <sheetViews>
@@ -13940,7 +16311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N75"/>
   <sheetViews>
@@ -16237,7 +18608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>

--- a/Wave Math/Tone_calculator.xlsx
+++ b/Wave Math/Tone_calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6795" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Base tone" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t>step (binary)</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Total / 3</t>
+    <t>Total (Hex)</t>
   </si>
 </sst>
 </file>
@@ -984,11 +984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="433611592"/>
-        <c:axId val="433613552"/>
+        <c:axId val="307455240"/>
+        <c:axId val="307452104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="433611592"/>
+        <c:axId val="307455240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,12 +1045,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433613552"/>
+        <c:crossAx val="307452104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433613552"/>
+        <c:axId val="307452104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433611592"/>
+        <c:crossAx val="307455240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1283,223 +1283,223 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2816.8085602299088</c:v>
+                  <c:v>2778.8357272890098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5612.7624553944761</c:v>
+                  <c:v>5537.6498794860281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8367.1614210721</c:v>
+                  <c:v>8256.5651374063964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11059.612851000311</c:v>
+                  <c:v>10915.991654313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13670.182776797787</c:v>
+                  <c:v>13496.768201210905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16179.543452091975</c:v>
+                  <c:v>15980.300223941362</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18569.116448391054</c:v>
+                  <c:v>18348.693817370586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20821.210203268449</c:v>
+                  <c:v>20584.884651386306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22919.151002501323</c:v>
+                  <c:v>22672.760919787252</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24847.406426417063</c:v>
+                  <c:v>24597.279426216013</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26591.700346494206</c:v>
+                  <c:v>26344.573970733538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28139.118620823239</c:v>
+                  <c:v>27902.055256107407</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29478.204705895063</c:v>
+                  <c:v>29258.501593986908</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30599.044476840794</c:v>
+                  <c:v>30404.139757424717</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31493.339628143684</c:v>
+                  <c:v>31330.715397201035</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32154.469111389823</c:v>
+                  <c:v>32031.552514598832</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32577.538155194125</c:v>
+                  <c:v>32501.60156212762</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32759.414504375083</c:v>
+                  <c:v>32737.475825628801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32698.751610076306</c:v>
+                  <c:v>32737.475825628797</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32395.998599143095</c:v>
+                  <c:v>32501.601562127616</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31853.39694894445</c:v>
+                  <c:v>32031.552514598832</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31074.96389225882</c:v>
+                  <c:v>31330.715397201027</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30066.462675088147</c:v>
+                  <c:v>30404.139757424713</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28835.359887600833</c:v>
+                  <c:v>29258.501593986904</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27390.770184110464</c:v>
+                  <c:v>27902.0552561074</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25743.388801364224</c:v>
+                  <c:v>26344.573970733523</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23905.412374751926</c:v>
+                  <c:v>24597.279426215995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21890.44863868484</c:v>
+                  <c:v>22672.760919787226</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19713.415679691028</c:v>
+                  <c:v>20584.884651386285</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17390.431488122056</c:v>
+                  <c:v>18348.693817370553</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14938.694626191656</c:v>
+                  <c:v>15980.300223941324</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12376.356895838304</c:v>
+                  <c:v>13496.76820121086</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9722.3889491344435</c:v>
+                  <c:v>10915.991654312958</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6996.4398362157717</c:v>
+                  <c:v>8256.5651374063473</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4218.6915305886896</c:v>
+                  <c:v>5537.6498794859726</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1409.7095088594249</c:v>
+                  <c:v>2778.8357272889475</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>64124.290491140528</c:v>
+                  <c:v>65533.999999999935</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>61315.308469411262</c:v>
+                  <c:v>62755.164272710928</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58537.560163784176</c:v>
+                  <c:v>59996.350120513904</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>55811.611050865526</c:v>
+                  <c:v>57277.434862593531</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>53157.64310416166</c:v>
+                  <c:v>54618.008345686925</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50595.305373808311</c:v>
+                  <c:v>52037.231798789013</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>48143.5685118779</c:v>
+                  <c:v>49553.699776058565</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45820.584320308932</c:v>
+                  <c:v>47185.306182629341</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43643.551361315127</c:v>
+                  <c:v>44949.115348613617</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41628.587625248038</c:v>
+                  <c:v>42861.239080212676</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>39790.611198635743</c:v>
+                  <c:v>40936.720573783925</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38143.229815889506</c:v>
+                  <c:v>39189.426029266404</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>36698.640112399138</c:v>
+                  <c:v>37631.944743892542</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35467.537324911827</c:v>
+                  <c:v>36275.498406013037</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34459.036107741165</c:v>
+                  <c:v>35129.86024257524</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>33680.603051055543</c:v>
+                  <c:v>34203.284602798929</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33138.001400856905</c:v>
+                  <c:v>33502.447485401135</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>32835.248389923698</c:v>
+                  <c:v>33032.398437872369</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32774.585495624917</c:v>
+                  <c:v>32796.524174371196</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32956.461844805875</c:v>
+                  <c:v>32796.524174371203</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>33379.53088861017</c:v>
+                  <c:v>33032.398437872391</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>34040.660371856298</c:v>
+                  <c:v>33502.447485401179</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>34934.95552315918</c:v>
+                  <c:v>34203.28460279898</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>36055.795294104901</c:v>
+                  <c:v>35129.860242575291</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>37394.881379176702</c:v>
+                  <c:v>36275.498406013088</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>38942.299653505732</c:v>
+                  <c:v>37631.944743892593</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>40686.593573582846</c:v>
+                  <c:v>39189.426029266448</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42614.848997498571</c:v>
+                  <c:v>40936.720573783954</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44712.78979673142</c:v>
+                  <c:v>42861.239080212719</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>46964.8835516088</c:v>
+                  <c:v>44949.115348613646</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49354.456547907845</c:v>
+                  <c:v>47185.306182629341</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>51863.817223202022</c:v>
+                  <c:v>49553.699776058573</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>54474.387148999464</c:v>
+                  <c:v>52037.231798789006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>57166.838578927665</c:v>
+                  <c:v>54618.008345686889</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>59921.237544605261</c:v>
+                  <c:v>57277.434862593494</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>62717.19143976982</c:v>
+                  <c:v>59996.350120513838</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>65533.999999999702</c:v>
+                  <c:v>62755.164272710834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,11 +1514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="306173416"/>
-        <c:axId val="306175376"/>
+        <c:axId val="307454064"/>
+        <c:axId val="307452496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="306173416"/>
+        <c:axId val="307454064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,12 +1574,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306175376"/>
+        <c:crossAx val="307452496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="306175376"/>
+        <c:axId val="307452496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306173416"/>
+        <c:crossAx val="307454064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3132,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -8132,8 +8132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8217,20 +8217,20 @@
         <v>3.082E-2</v>
       </c>
       <c r="D3">
-        <f>D2+360/73</f>
-        <v>4.9315068493150687</v>
+        <f>D2+360/74</f>
+        <v>4.8648648648648649</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">SIN(RADIANS(D3))</f>
-        <v>8.5964798737446474E-2</v>
+        <v>8.4805924475509192E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">IF(E3&gt;=0, E3*32767, E3*32767+32767*2)</f>
-        <v>2816.8085602299088</v>
+        <v>2778.8357272890098</v>
       </c>
       <c r="G3" t="str">
         <f>DEC2HEX(F3, 4)</f>
-        <v>0B00</v>
+        <v>0ADA</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="2">DEC2BIN(A3,7)</f>
@@ -8247,20 +8247,20 @@
         <v>6.164E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="5">D3+360/73</f>
-        <v>9.8630136986301373</v>
+        <f t="shared" ref="D4:D67" si="5">D3+360/74</f>
+        <v>9.7297297297297298</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.17129314418147759</v>
+        <v>0.16900082032184907</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>5612.7624553944761</v>
+        <v>5537.6498794860281</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G67" si="6">DEC2HEX(F4, 4)</f>
-        <v>15EC</v>
+        <v>15A1</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
@@ -8284,19 +8284,19 @@
       </c>
       <c r="D5">
         <f t="shared" si="5"/>
-        <v>14.794520547945206</v>
+        <v>14.594594594594595</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.25535329511618704</v>
+        <v>0.25197806138512518</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>8367.1614210721</v>
+        <v>8256.5651374063964</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="6"/>
-        <v>20AF</v>
+        <v>2040</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="2"/>
@@ -8321,19 +8321,19 @@
       </c>
       <c r="D6">
         <f t="shared" si="5"/>
-        <v>19.726027397260275</v>
+        <v>19.45945945945946</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.3375228995941133</v>
+        <v>0.33313979474205757</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>11059.612851000311</v>
+        <v>10915.991654313</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="6"/>
-        <v>2B33</v>
+        <v>2AA3</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
@@ -8358,19 +8358,19 @@
       </c>
       <c r="D7">
         <f t="shared" si="5"/>
-        <v>24.657534246575345</v>
+        <v>24.324324324324323</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.41719360261231686</v>
+        <v>0.4119012482439926</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>13670.182776797787</v>
+        <v>13496.768201210905</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="6"/>
-        <v>3566</v>
+        <v>34B8</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
@@ -8391,19 +8391,19 @@
       </c>
       <c r="D8">
         <f t="shared" si="5"/>
-        <v>29.589041095890416</v>
+        <v>29.189189189189186</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.49377555015997726</v>
+        <v>0.48769494381363448</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>16179.543452091975</v>
+        <v>15980.300223941362</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="6"/>
-        <v>3F33</v>
+        <v>3E6C</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
@@ -8421,19 +8421,19 @@
       </c>
       <c r="D9">
         <f t="shared" si="5"/>
-        <v>34.520547945205486</v>
+        <v>34.054054054054049</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.56670175629111774</v>
+        <v>0.55997478613759533</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>18569.116448391054</v>
+        <v>18348.693817370586</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="6"/>
-        <v>4889</v>
+        <v>47AC</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="2"/>
@@ -8451,19 +8451,19 @@
       </c>
       <c r="D10">
         <f t="shared" si="5"/>
-        <v>39.452054794520556</v>
+        <v>38.918918918918912</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.63543230089017755</v>
+        <v>0.62821999729564215</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>20821.210203268449</v>
+        <v>20584.884651386306</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="6"/>
-        <v>5155</v>
+        <v>5068</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="2"/>
@@ -8481,19 +8481,19 @@
       </c>
       <c r="D11">
         <f t="shared" si="5"/>
-        <v>44.383561643835627</v>
+        <v>43.783783783783775</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.69945832705164723</v>
+        <v>0.69193886897754608</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>22919.151002501323</v>
+        <v>22672.760919787252</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="6"/>
-        <v>5987</v>
+        <v>5890</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
@@ -8518,19 +8518,19 @@
       </c>
       <c r="D12">
         <f t="shared" si="5"/>
-        <v>49.315068493150697</v>
+        <v>48.648648648648638</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.75830580847856266</v>
+        <v>0.75067230525272421</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>24847.406426417063</v>
+        <v>24597.279426216013</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="6"/>
-        <v>610F</v>
+        <v>6015</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="2"/>
@@ -8548,19 +8548,19 @@
       </c>
       <c r="D13">
         <f t="shared" si="5"/>
-        <v>54.246575342465768</v>
+        <v>53.513513513513502</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.81153905900736123</v>
+        <v>0.80399713036694043</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>26591.700346494206</v>
+        <v>26344.573970733538</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="6"/>
-        <v>67DF</v>
+        <v>66E8</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="2"/>
@@ -8578,19 +8578,19 @@
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
-        <v>59.178082191780838</v>
+        <v>58.378378378378365</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.8587639582758031</v>
+        <v>0.85152913773331118</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>28139.118620823239</v>
+        <v>27902.055256107407</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="6"/>
-        <v>6DEB</v>
+        <v>6CFE</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="2"/>
@@ -8608,19 +8608,19 @@
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
-        <v>64.109589041095902</v>
+        <v>63.243243243243228</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.89963086965224348</v>
+        <v>0.89292585814956837</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>29478.204705895063</v>
+        <v>29258.501593986908</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="6"/>
-        <v>7326</v>
+        <v>724A</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="2"/>
@@ -8638,19 +8638,19 @@
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>69.041095890410972</v>
+        <v>68.108108108108098</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.9338372288229253</v>
+        <v>0.92788902729650924</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>30599.044476840794</v>
+        <v>30404.139757424717</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="6"/>
-        <v>7787</v>
+        <v>76C4</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="2"/>
@@ -8668,19 +8668,19 @@
       </c>
       <c r="D17">
         <f t="shared" si="5"/>
-        <v>73.972602739726042</v>
+        <v>72.972972972972968</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.96112978387230086</v>
+        <v>0.95616673473925096</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>31493.339628143684</v>
+        <v>31330.715397201035</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="6"/>
-        <v>7B05</v>
+        <v>7A62</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="2"/>
@@ -8698,19 +8698,19 @@
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
-        <v>78.904109589041113</v>
+        <v>77.837837837837839</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.98130647027160933</v>
+        <v>0.97755523894768614</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>32154.469111389823</v>
+        <v>32031.552514598832</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="6"/>
-        <v>7D9A</v>
+        <v>7D1F</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="2"/>
@@ -8728,19 +8728,19 @@
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
-        <v>83.835616438356183</v>
+        <v>82.702702702702709</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.99421790689395195</v>
+        <v>0.99190043525887694</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>32577.538155194125</v>
+        <v>32501.60156212762</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="6"/>
-        <v>7F41</v>
+        <v>7EF5</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="2"/>
@@ -8758,19 +8758,19 @@
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
-        <v>88.767123287671254</v>
+        <v>87.567567567567579</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.99976850197989087</v>
+        <v>0.99909896620468153</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>32759.414504375083</v>
+        <v>32737.475825628801</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="6"/>
-        <v>7FF7</v>
+        <v>7FE1</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
@@ -8788,19 +8788,19 @@
       </c>
       <c r="D21">
         <f t="shared" si="5"/>
-        <v>93.698630136986324</v>
+        <v>92.432432432432449</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.99791716086539217</v>
+        <v>0.99909896620468142</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>32698.751610076306</v>
+        <v>32737.475825628797</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="6"/>
-        <v>7FBA</v>
+        <v>7FE1</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
@@ -8818,19 +8818,19 @@
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
-        <v>98.630136986301395</v>
+        <v>97.29729729729732</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.98867759023234036</v>
+        <v>0.99190043525887683</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>32395.998599143095</v>
+        <v>32501.601562127616</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="6"/>
-        <v>7E8B</v>
+        <v>7EF5</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="2"/>
@@ -8848,19 +8848,19 @@
       </c>
       <c r="D23">
         <f t="shared" si="5"/>
-        <v>103.56164383561647</v>
+        <v>102.16216216216219</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.97211819662906129</v>
+        <v>0.97755523894768614</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>31853.39694894445</v>
+        <v>32031.552514598832</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="6"/>
-        <v>7C6D</v>
+        <v>7D1F</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="2"/>
@@ -8878,19 +8878,19 @@
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
-        <v>108.49315068493154</v>
+        <v>107.02702702702706</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.94836158001217141</v>
+        <v>0.95616673473925073</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>31074.96389225882</v>
+        <v>31330.715397201027</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="6"/>
-        <v>7962</v>
+        <v>7A62</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="2"/>
@@ -8908,19 +8908,19 @@
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
-        <v>113.42465753424661</v>
+        <v>111.89189189189193</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.91758362605939348</v>
+        <v>0.92788902729650913</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>30066.462675088147</v>
+        <v>30404.139757424713</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="6"/>
-        <v>7572</v>
+        <v>76C4</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="2"/>
@@ -8938,19 +8938,19 @@
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
-        <v>118.35616438356168</v>
+        <v>116.7567567567568</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.8800122039735353</v>
+        <v>0.89292585814956826</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>28835.359887600833</v>
+        <v>29258.501593986904</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="6"/>
-        <v>70A3</v>
+        <v>724A</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="2"/>
@@ -8968,19 +8968,19 @@
       </c>
       <c r="D27">
         <f t="shared" si="5"/>
-        <v>123.28767123287675</v>
+        <v>121.62162162162167</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0.8359254794186366</v>
+        <v>0.85152913773331096</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>27390.770184110464</v>
+        <v>27902.0552561074</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="6"/>
-        <v>6AFE</v>
+        <v>6CFE</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="2"/>
@@ -8998,19 +8998,19 @@
       </c>
       <c r="D28">
         <f t="shared" si="5"/>
-        <v>128.2191780821918</v>
+        <v>126.48648648648654</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0.7856498550787141</v>
+        <v>0.80399713036693998</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>25743.388801364224</v>
+        <v>26344.573970733523</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="6"/>
-        <v>648F</v>
+        <v>66E8</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
@@ -9028,19 +9028,19 @@
       </c>
       <c r="D29">
         <f t="shared" si="5"/>
-        <v>133.15068493150687</v>
+        <v>131.35135135135141</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>0.72955755408648715</v>
+        <v>0.75067230525272366</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>23905.412374751926</v>
+        <v>24597.279426215995</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="6"/>
-        <v>5D61</v>
+        <v>6015</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="2"/>
@@ -9058,19 +9058,19 @@
       </c>
       <c r="D30">
         <f t="shared" si="5"/>
-        <v>138.08219178082194</v>
+        <v>136.21621621621628</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>0.66806386421353314</v>
+        <v>0.69193886897754531</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>21890.44863868484</v>
+        <v>22672.760919787226</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="6"/>
-        <v>5582</v>
+        <v>5890</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="2"/>
@@ -9088,19 +9088,19 @@
       </c>
       <c r="D31">
         <f t="shared" si="5"/>
-        <v>143.01369863013701</v>
+        <v>141.08108108108115</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0.60162406322492223</v>
+        <v>0.62821999729564149</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>19713.415679691028</v>
+        <v>20584.884651386285</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="6"/>
-        <v>4D01</v>
+        <v>5068</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="2"/>
@@ -9118,19 +9118,19 @@
       </c>
       <c r="D32">
         <f t="shared" si="5"/>
-        <v>147.94520547945208</v>
+        <v>145.94594594594602</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0.53073004816193292</v>
+        <v>0.55997478613759433</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>17390.431488122056</v>
+        <v>18348.693817370553</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="6"/>
-        <v>43EE</v>
+        <v>47AC</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="2"/>
@@ -9148,19 +9148,19 @@
       </c>
       <c r="D33">
         <f t="shared" si="5"/>
-        <v>152.87671232876716</v>
+        <v>150.81081081081089</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>0.45590669350845842</v>
+        <v>0.48769494381363332</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>14938.694626191656</v>
+        <v>15980.300223941324</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="6"/>
-        <v>3A5A</v>
+        <v>3E6C</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="2"/>
@@ -9178,19 +9178,19 @@
       </c>
       <c r="D34">
         <f t="shared" si="5"/>
-        <v>157.80821917808223</v>
+        <v>155.67567567567576</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>0.37770796520396449</v>
+        <v>0.41190124824399121</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>12376.356895838304</v>
+        <v>13496.76820121086</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="6"/>
-        <v>3058</v>
+        <v>34B8</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="2"/>
@@ -9208,19 +9208,19 @@
       </c>
       <c r="D35">
         <f t="shared" si="5"/>
-        <v>162.7397260273973</v>
+        <v>160.54054054054063</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0.29671281927348991</v>
+        <v>0.33313979474205629</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>9722.3889491344435</v>
+        <v>10915.991654312958</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="6"/>
-        <v>25FA</v>
+        <v>2AA3</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="2"/>
@@ -9238,19 +9238,19 @@
       </c>
       <c r="D36">
         <f t="shared" si="5"/>
-        <v>167.67123287671237</v>
+        <v>165.4054054054055</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>0.21352091543979526</v>
+        <v>0.25197806138512369</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>6996.4398362157717</v>
+        <v>8256.5651374063473</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="6"/>
-        <v>1B54</v>
+        <v>2040</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="2"/>
@@ -9268,19 +9268,19 @@
       </c>
       <c r="D37">
         <f t="shared" si="5"/>
-        <v>172.60273972602744</v>
+        <v>170.27027027027037</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>0.12874817745258002</v>
+        <v>0.16900082032184738</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>4218.6915305886896</v>
+        <v>5537.6498794859726</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="6"/>
-        <v>107A</v>
+        <v>15A1</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="2"/>
@@ -9298,19 +9298,19 @@
       </c>
       <c r="D38">
         <f t="shared" si="5"/>
-        <v>177.53424657534251</v>
+        <v>175.13513513513524</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>4.3022233004529703E-2</v>
+        <v>8.4805924475507291E-2</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>1409.7095088594249</v>
+        <v>2778.8357272889475</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="6"/>
-        <v>0581</v>
+        <v>0ADA</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="2"/>
@@ -9328,19 +9328,19 @@
       </c>
       <c r="D39">
         <f t="shared" si="5"/>
-        <v>182.46575342465758</v>
+        <v>180.00000000000011</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-4.302223300453123E-2</v>
+        <v>-2.0979312037594511E-15</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>64124.290491140528</v>
+        <v>65533.999999999935</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="6"/>
-        <v>FA7C</v>
+        <v>FFFD</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="2"/>
@@ -9358,19 +9358,19 @@
       </c>
       <c r="D40">
         <f t="shared" si="5"/>
-        <v>187.39726027397265</v>
+        <v>184.86486486486498</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>-0.12874817745258152</v>
+        <v>-8.4805924475511024E-2</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>61315.308469411262</v>
+        <v>62755.164272710928</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="6"/>
-        <v>EF83</v>
+        <v>F523</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="2"/>
@@ -9388,19 +9388,19 @@
       </c>
       <c r="D41">
         <f t="shared" si="5"/>
-        <v>192.32876712328772</v>
+        <v>189.72972972972985</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-0.21352091543979676</v>
+        <v>-0.16900082032185107</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>58537.560163784176</v>
+        <v>59996.350120513904</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="6"/>
-        <v>E4A9</v>
+        <v>EA5C</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="2"/>
@@ -9418,19 +9418,19 @@
       </c>
       <c r="D42">
         <f t="shared" si="5"/>
-        <v>197.26027397260279</v>
+        <v>194.59459459459472</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-0.29671281927349091</v>
+        <v>-0.25197806138512735</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>55811.611050865526</v>
+        <v>57277.434862593531</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="6"/>
-        <v>DA03</v>
+        <v>DFBD</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="2"/>
@@ -9448,19 +9448,19 @@
       </c>
       <c r="D43">
         <f t="shared" si="5"/>
-        <v>202.19178082191786</v>
+        <v>199.45945945945959</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-0.37770796520396549</v>
+        <v>-0.33313979474205985</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>53157.64310416166</v>
+        <v>54618.008345686925</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="6"/>
-        <v>CFA5</v>
+        <v>D55A</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="2"/>
@@ -9478,19 +9478,19 @@
       </c>
       <c r="D44">
         <f t="shared" si="5"/>
-        <v>207.12328767123293</v>
+        <v>204.32432432432446</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-0.45590669350845942</v>
+        <v>-0.41190124824399504</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>50595.305373808311</v>
+        <v>52037.231798789013</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="6"/>
-        <v>C5A3</v>
+        <v>CB45</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="2"/>
@@ -9508,19 +9508,19 @@
       </c>
       <c r="D45">
         <f t="shared" si="5"/>
-        <v>212.054794520548</v>
+        <v>209.18918918918934</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-0.53073004816193425</v>
+        <v>-0.48769494381363659</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>48143.5685118779</v>
+        <v>49553.699776058565</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="6"/>
-        <v>BC0F</v>
+        <v>C191</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="2"/>
@@ -9538,19 +9538,19 @@
       </c>
       <c r="D46">
         <f t="shared" si="5"/>
-        <v>216.98630136986307</v>
+        <v>214.05405405405421</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-0.60162406322492346</v>
+        <v>-0.55997478613759744</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>45820.584320308932</v>
+        <v>47185.306182629341</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="6"/>
-        <v>B2FC</v>
+        <v>B851</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="2"/>
@@ -9568,19 +9568,19 @@
       </c>
       <c r="D47">
         <f t="shared" si="5"/>
-        <v>221.91780821917814</v>
+        <v>218.91891891891908</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-0.66806386421353425</v>
+        <v>-0.62821999729564448</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>43643.551361315127</v>
+        <v>44949.115348613617</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="6"/>
-        <v>AA7B</v>
+        <v>AF95</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="2"/>
@@ -9598,19 +9598,19 @@
       </c>
       <c r="D48">
         <f t="shared" si="5"/>
-        <v>226.84931506849321</v>
+        <v>223.78378378378395</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-0.72955755408648826</v>
+        <v>-0.6919388689775483</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>41628.587625248038</v>
+        <v>42861.239080212676</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="6"/>
-        <v>A29C</v>
+        <v>A76D</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="2"/>
@@ -9628,19 +9628,19 @@
       </c>
       <c r="D49">
         <f t="shared" si="5"/>
-        <v>231.78082191780828</v>
+        <v>228.64864864864882</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-0.78564985507871499</v>
+        <v>-0.7506723052527261</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>39790.611198635743</v>
+        <v>40936.720573783925</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="6"/>
-        <v>9B6E</v>
+        <v>9FE8</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="2"/>
@@ -9658,19 +9658,19 @@
       </c>
       <c r="D50">
         <f t="shared" si="5"/>
-        <v>236.71232876712335</v>
+        <v>233.51351351351369</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>-0.83592547941863748</v>
+        <v>-0.8039971303669422</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>38143.229815889506</v>
+        <v>39189.426029266404</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="6"/>
-        <v>94FF</v>
+        <v>9915</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="2"/>
@@ -9688,19 +9688,19 @@
       </c>
       <c r="D51">
         <f t="shared" si="5"/>
-        <v>241.64383561643842</v>
+        <v>238.37837837837856</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-0.88001220397353608</v>
+        <v>-0.85152913773331285</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>36698.640112399138</v>
+        <v>37631.944743892542</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="6"/>
-        <v>8F5A</v>
+        <v>92FF</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="2"/>
@@ -9718,19 +9718,19 @@
       </c>
       <c r="D52">
         <f t="shared" si="5"/>
-        <v>246.57534246575349</v>
+        <v>243.24324324324343</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>-0.91758362605939414</v>
+        <v>-0.89292585814956993</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>35467.537324911827</v>
+        <v>36275.498406013037</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="6"/>
-        <v>8A8B</v>
+        <v>8DB3</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="2"/>
@@ -9748,19 +9748,19 @@
       </c>
       <c r="D53">
         <f t="shared" si="5"/>
-        <v>251.50684931506856</v>
+        <v>248.1081081081083</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-0.94836158001217186</v>
+        <v>-0.92788902729651057</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>34459.036107741165</v>
+        <v>35129.86024257524</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="6"/>
-        <v>869B</v>
+        <v>8939</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="2"/>
@@ -9778,19 +9778,19 @@
       </c>
       <c r="D54">
         <f t="shared" si="5"/>
-        <v>256.43835616438361</v>
+        <v>252.97297297297317</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>-0.97211819662906152</v>
+        <v>-0.95616673473925196</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>33680.603051055543</v>
+        <v>34203.284602798929</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="6"/>
-        <v>8390</v>
+        <v>859B</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="2"/>
@@ -9808,19 +9808,19 @@
       </c>
       <c r="D55">
         <f t="shared" si="5"/>
-        <v>261.36986301369865</v>
+        <v>257.83783783783804</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-0.98867759023234036</v>
+        <v>-0.97755523894768703</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>33138.001400856905</v>
+        <v>33502.447485401135</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="6"/>
-        <v>8172</v>
+        <v>82DE</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="2"/>
@@ -9838,19 +9838,19 @@
       </c>
       <c r="D56">
         <f t="shared" si="5"/>
-        <v>266.30136986301369</v>
+        <v>262.70270270270288</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>-0.99791716086539217</v>
+        <v>-0.99190043525887728</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>32835.248389923698</v>
+        <v>33032.398437872369</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="6"/>
-        <v>8043</v>
+        <v>8108</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="2"/>
@@ -9868,19 +9868,19 @@
       </c>
       <c r="D57">
         <f t="shared" si="5"/>
-        <v>271.23287671232873</v>
+        <v>267.56756756756772</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-0.99976850197989087</v>
+        <v>-0.99909896620468153</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>32774.585495624917</v>
+        <v>32796.524174371196</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="6"/>
-        <v>8006</v>
+        <v>801C</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="2"/>
@@ -9898,19 +9898,19 @@
       </c>
       <c r="D58">
         <f t="shared" si="5"/>
-        <v>276.16438356164377</v>
+        <v>272.43243243243256</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>-0.99421790689395206</v>
+        <v>-0.99909896620468142</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>32956.461844805875</v>
+        <v>32796.524174371203</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="6"/>
-        <v>80BC</v>
+        <v>801C</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="2"/>
@@ -9928,19 +9928,19 @@
       </c>
       <c r="D59">
         <f t="shared" si="5"/>
-        <v>281.09589041095882</v>
+        <v>277.2972972972974</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-0.98130647027160967</v>
+        <v>-0.99190043525887661</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>33379.53088861017</v>
+        <v>33032.398437872391</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="6"/>
-        <v>8263</v>
+        <v>8108</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="2"/>
@@ -9958,19 +9958,19 @@
       </c>
       <c r="D60">
         <f t="shared" si="5"/>
-        <v>286.02739726027386</v>
+        <v>282.16216216216225</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>-0.9611297838723013</v>
+        <v>-0.97755523894768592</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>34040.660371856298</v>
+        <v>33502.447485401179</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="6"/>
-        <v>84F8</v>
+        <v>82DE</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="2"/>
@@ -9988,19 +9988,19 @@
       </c>
       <c r="D61">
         <f t="shared" si="5"/>
-        <v>290.9589041095889</v>
+        <v>287.02702702702709</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>-0.93383722882292619</v>
+        <v>-0.95616673473925051</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>34934.95552315918</v>
+        <v>34203.28460279898</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="6"/>
-        <v>8876</v>
+        <v>859B</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="2"/>
@@ -10018,19 +10018,19 @@
       </c>
       <c r="D62">
         <f t="shared" si="5"/>
-        <v>295.89041095890394</v>
+        <v>291.89189189189193</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>-0.89963086965224459</v>
+        <v>-0.92788902729650913</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>36055.795294104901</v>
+        <v>35129.860242575291</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="6"/>
-        <v>8CD7</v>
+        <v>8939</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
@@ -10048,19 +10048,19 @@
       </c>
       <c r="D63">
         <f t="shared" si="5"/>
-        <v>300.82191780821898</v>
+        <v>296.75675675675677</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-0.85876395827580487</v>
+        <v>-0.89292585814956849</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>37394.881379176702</v>
+        <v>36275.498406013088</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="6"/>
-        <v>9212</v>
+        <v>8DB3</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
@@ -10078,19 +10078,19 @@
       </c>
       <c r="D64">
         <f t="shared" si="5"/>
-        <v>305.75342465753403</v>
+        <v>301.62162162162161</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>-0.81153905900736312</v>
+        <v>-0.85152913773331118</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>38942.299653505732</v>
+        <v>37631.944743892593</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="6"/>
-        <v>981E</v>
+        <v>92FF</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
@@ -10108,19 +10108,19 @@
       </c>
       <c r="D65">
         <f t="shared" si="5"/>
-        <v>310.68493150684907</v>
+        <v>306.48648648648646</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-0.75830580847856544</v>
+        <v>-0.80399713036694087</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>40686.593573582846</v>
+        <v>39189.426029266448</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="6"/>
-        <v>9EEE</v>
+        <v>9915</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="2"/>
@@ -10138,19 +10138,19 @@
       </c>
       <c r="D66">
         <f t="shared" si="5"/>
-        <v>315.61643835616411</v>
+        <v>311.3513513513513</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>-0.69945832705165034</v>
+        <v>-0.75067230525272521</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>42614.848997498571</v>
+        <v>40936.720573783954</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="6"/>
-        <v>A676</v>
+        <v>9FE8</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="2"/>
@@ -10168,49 +10168,49 @@
       </c>
       <c r="D67">
         <f t="shared" si="5"/>
-        <v>320.54794520547915</v>
+        <v>316.21621621621614</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E111" si="7">SIN(RADIANS(D67))</f>
-        <v>-0.63543230089018166</v>
+        <f t="shared" ref="E67:E75" si="7">SIN(RADIANS(D67))</f>
+        <v>-0.69193886897754697</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F111" si="8">IF(E67&gt;=0, E67*32767, E67*32767+32767*2)</f>
-        <v>44712.78979673142</v>
+        <f t="shared" ref="F67:F75" si="8">IF(E67&gt;=0, E67*32767, E67*32767+32767*2)</f>
+        <v>42861.239080212719</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="6"/>
-        <v>AEA8</v>
+        <v>A76D</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H111" si="9">DEC2BIN(A67,7)</f>
+        <f t="shared" ref="H67:H75" si="9">DEC2BIN(A67,7)</f>
         <v>1000001</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A111" si="10">A67+1</f>
+        <f t="shared" ref="A68:A77" si="10">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B104" si="11">B67+0.03082</f>
+        <f t="shared" ref="B68:B77" si="11">B67+0.03082</f>
         <v>2.0341200000000015</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D77" si="12">D67+360/73</f>
-        <v>325.47945205479419</v>
+        <f t="shared" ref="D68:D76" si="12">D67+360/74</f>
+        <v>321.08108108108098</v>
       </c>
       <c r="E68">
         <f t="shared" si="7"/>
-        <v>-0.56670175629112207</v>
+        <v>-0.62821999729564371</v>
       </c>
       <c r="F68">
         <f t="shared" si="8"/>
-        <v>46964.8835516088</v>
+        <v>44949.115348613646</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68:G111" si="13">DEC2HEX(F68, 4)</f>
-        <v>B774</v>
+        <f t="shared" ref="G68:G75" si="13">DEC2HEX(F68, 4)</f>
+        <v>AF95</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="9"/>
@@ -10228,19 +10228,19 @@
       </c>
       <c r="D69">
         <f t="shared" si="12"/>
-        <v>330.41095890410924</v>
+        <v>325.94594594594582</v>
       </c>
       <c r="E69">
         <f t="shared" si="7"/>
-        <v>-0.49377555015998281</v>
+        <v>-0.55997478613759744</v>
       </c>
       <c r="F69">
         <f t="shared" si="8"/>
-        <v>49354.456547907845</v>
+        <v>47185.306182629341</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="13"/>
-        <v>C0CA</v>
+        <v>B851</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="9"/>
@@ -10258,19 +10258,19 @@
       </c>
       <c r="D70">
         <f t="shared" si="12"/>
-        <v>335.34246575342428</v>
+        <v>330.81081081081066</v>
       </c>
       <c r="E70">
         <f t="shared" si="7"/>
-        <v>-0.41719360261232263</v>
+        <v>-0.48769494381363654</v>
       </c>
       <c r="F70">
         <f t="shared" si="8"/>
-        <v>51863.817223202022</v>
+        <v>49553.699776058573</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="13"/>
-        <v>CA97</v>
+        <v>C191</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="9"/>
@@ -10288,19 +10288,19 @@
       </c>
       <c r="D71">
         <f t="shared" si="12"/>
-        <v>340.27397260273932</v>
+        <v>335.67567567567551</v>
       </c>
       <c r="E71">
         <f t="shared" si="7"/>
-        <v>-0.33752289959412013</v>
+        <v>-0.41190124824399538</v>
       </c>
       <c r="F71">
         <f t="shared" si="8"/>
-        <v>54474.387148999464</v>
+        <v>52037.231798789006</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="13"/>
-        <v>D4CA</v>
+        <v>CB45</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="9"/>
@@ -10318,19 +10318,19 @@
       </c>
       <c r="D72">
         <f t="shared" si="12"/>
-        <v>345.20547945205436</v>
+        <v>340.54054054054035</v>
       </c>
       <c r="E72">
         <f t="shared" si="7"/>
-        <v>-0.25535329511619409</v>
+        <v>-0.33313979474206101</v>
       </c>
       <c r="F72">
         <f t="shared" si="8"/>
-        <v>57166.838578927665</v>
+        <v>54618.008345686889</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="13"/>
-        <v>DF4E</v>
+        <v>D55A</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="9"/>
@@ -10348,19 +10348,19 @@
       </c>
       <c r="D73">
         <f t="shared" si="12"/>
-        <v>350.1369863013694</v>
+        <v>345.40540540540519</v>
       </c>
       <c r="E73">
         <f t="shared" si="7"/>
-        <v>-0.17129314418148567</v>
+        <v>-0.25197806138512857</v>
       </c>
       <c r="F73">
         <f t="shared" si="8"/>
-        <v>59921.237544605261</v>
+        <v>57277.434862593494</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="13"/>
-        <v>EA11</v>
+        <v>DFBD</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="9"/>
@@ -10378,19 +10378,19 @@
       </c>
       <c r="D74">
         <f t="shared" si="12"/>
-        <v>355.06849315068445</v>
+        <v>350.27027027027003</v>
       </c>
       <c r="E74">
         <f t="shared" si="7"/>
-        <v>-8.5964798737454662E-2</v>
+        <v>-0.16900082032185318</v>
       </c>
       <c r="F74">
         <f t="shared" si="8"/>
-        <v>62717.19143976982</v>
+        <v>59996.350120513838</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="13"/>
-        <v>F4FD</v>
+        <v>EA5C</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="9"/>
@@ -10408,19 +10408,19 @@
       </c>
       <c r="D75">
         <f t="shared" si="12"/>
-        <v>359.99999999999949</v>
+        <v>355.13513513513487</v>
       </c>
       <c r="E75">
         <f t="shared" si="7"/>
-        <v>-9.1268138879829763E-15</v>
+        <v>-8.480592447551405E-2</v>
       </c>
       <c r="F75">
         <f t="shared" si="8"/>
-        <v>65533.999999999702</v>
+        <v>62755.164272710834</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="13"/>
-        <v>FFFD</v>
+        <v>F523</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="9"/>
@@ -10437,8 +10437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10504,8 +10504,8 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <f>DEC2HEX(F2)</f>
-        <v>0</v>
+        <f>DEC2HEX(F2, 4)</f>
+        <v>0000</v>
       </c>
       <c r="H2" t="str">
         <f>DEC2BIN(A2, 7)</f>
@@ -10526,16 +10526,16 @@
         <v>5.806451612903226</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">SIN(RADIANS(D3))</f>
+        <f t="shared" ref="E3:E63" si="0">SIN(RADIANS(D3))</f>
         <v>0.10116832198743217</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">IF(E3&gt;=0, E3*32767, E3*32767+32767*2)</f>
+        <f t="shared" ref="F3:F63" si="1">IF(E3&gt;=0, E3*32767, E3*32767+32767*2)</f>
         <v>3314.9824065621897</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="2">DEC2HEX(F3)</f>
-        <v>CF2</v>
+        <f t="shared" ref="G3:G63" si="2">DEC2HEX(F3, 4)</f>
+        <v>0CF2</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H63" si="3">DEC2BIN(A3, 7)</f>
@@ -10544,11 +10544,11 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="4">A3+1</f>
+        <f t="shared" ref="A4:A63" si="4">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="5">B3 +0.03082</f>
+        <f t="shared" ref="B4:B63" si="5">B3 +0.03082</f>
         <v>6.164E-2</v>
       </c>
       <c r="D4">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>CF2</v>
+        <v>0CF2</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
@@ -12373,7 +12373,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12439,8 +12439,8 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <f>DEC2HEX(F2)</f>
-        <v>0</v>
+        <f>DEC2HEX(F2,4)</f>
+        <v>0000</v>
       </c>
       <c r="H2" t="str">
         <f>DEC2BIN(A2, 7)</f>
@@ -12461,15 +12461,15 @@
         <v>7.3469387755102042</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">SIN(RADIANS(D3))</f>
+        <f t="shared" ref="E3:E50" si="0">SIN(RADIANS(D3))</f>
         <v>0.127877161684506</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">IF(E3&gt;=0, E3*32767, E3*32767+32767*2)</f>
+        <f t="shared" ref="F3:F50" si="1">IF(E3&gt;=0, E3*32767, E3*32767+32767*2)</f>
         <v>4190.1509569162081</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="2">DEC2HEX(F3)</f>
+        <f t="shared" ref="G3:G50" si="2">DEC2HEX(F3,4)</f>
         <v>105E</v>
       </c>
       <c r="H3" t="str">
@@ -12479,15 +12479,15 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="4">A3+1</f>
+        <f t="shared" ref="A4:A50" si="4">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="5">B3+0.03082</f>
+        <f t="shared" ref="B4:B51" si="5">B3+0.03082</f>
         <v>6.164E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D50" si="6">D3+360/49</f>
+        <f t="shared" ref="D4:D51" si="6">D3+360/49</f>
         <v>14.693877551020408</v>
       </c>
       <c r="E4">
@@ -13183,7 +13183,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>833</v>
+        <v>0833</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
@@ -13917,16 +13917,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -13936,20 +13938,23 @@
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -13960,16 +13965,26 @@
         <f>1/48000*A2 *1000</f>
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <f>F2+E2+D2</f>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <f>G2/3</f>
+      <c r="F2">
+        <f>(E2+D2+C2)/3</f>
         <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>DEC2HEX(F2,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="H2" t="str">
+        <f>DEC2BIN(A2, 7)</f>
+        <v>0000000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -13978,19 +13993,29 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">1/48000*A3 *1000</f>
-        <v>2.0833333333333332E-2</v>
+        <f>B2+0.03082</f>
+        <v>3.082E-2</v>
+      </c>
+      <c r="C3">
+        <v>2778.8357272890098</v>
       </c>
       <c r="D3">
-        <v>2816.8085602299088</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">F3+E3+D3</f>
-        <v>2816.8085602299088</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">G3/3</f>
-        <v>938.93618674330298</v>
+        <v>3314.9824065621897</v>
+      </c>
+      <c r="E3">
+        <v>4190.1509569162081</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">(E3+D3+C3)/3</f>
+        <v>3427.9896969224696</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="1">DEC2HEX(F3,4)</f>
+        <v>0D63</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="2">DEC2BIN(A3, 7)</f>
+        <v>0000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -13999,19 +14024,29 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" ref="B4:B67" si="4">B3+0.03082</f>
+        <v>6.164E-2</v>
+      </c>
+      <c r="C4">
+        <v>5537.6498794860281</v>
       </c>
       <c r="D4">
-        <v>5612.7624553944761</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>5612.7624553944761</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>1870.9208184648253</v>
+        <v>6595.9486077451238</v>
+      </c>
+      <c r="E4">
+        <v>8311.4997509628265</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>6815.0327460646595</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>1A9F</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>0000010</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -14020,19 +14055,29 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.2460000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>8256.5651374063964</v>
       </c>
       <c r="D5">
-        <v>8367.1614210721</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>8367.1614210721</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>2789.0538070240332</v>
+        <v>9809.2314504680216</v>
+      </c>
+      <c r="E5">
+        <v>12296.373948882452</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>10120.723512252291</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>2788</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>0000011</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -14041,19 +14086,29 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.12328</v>
+      </c>
+      <c r="C6">
+        <v>10915.991654313</v>
       </c>
       <c r="D6">
-        <v>11059.612851000311</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>11059.612851000311</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>3686.5376170001036</v>
+        <v>12921.85830449811</v>
+      </c>
+      <c r="E6">
+        <v>16079.342026513032</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>13305.730661774714</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>33F9</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>0000100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -14062,19 +14117,29 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.10416666666666666</v>
+        <f t="shared" si="4"/>
+        <v>0.15410000000000001</v>
+      </c>
+      <c r="C7">
+        <v>13496.768201210905</v>
       </c>
       <c r="D7">
-        <v>13670.182776797787</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>13670.182776797787</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>4556.7275922659292</v>
+        <v>15901.889406255932</v>
+      </c>
+      <c r="E7">
+        <v>19598.287752605676</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>16332.315120024172</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>3FCC</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>0000101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -14083,19 +14148,29 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f t="shared" si="4"/>
+        <v>0.18492000000000003</v>
+      </c>
+      <c r="C8">
+        <v>15980.300223941362</v>
       </c>
       <c r="D8">
-        <v>16179.543452091975</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>16179.543452091975</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>5393.1811506973254</v>
+        <v>18718.745604011056</v>
+      </c>
+      <c r="E8">
+        <v>22795.43013562444</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>19164.825321192286</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>4ADC</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>0000110</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -14104,19 +14179,29 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.14583333333333331</v>
+        <f t="shared" si="4"/>
+        <v>0.21574000000000004</v>
+      </c>
+      <c r="C9">
+        <v>18348.693817370586</v>
       </c>
       <c r="D9">
-        <v>18569.116448391054</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>18569.116448391054</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>6189.7054827970178</v>
+        <v>21343.522141359052</v>
+      </c>
+      <c r="E9">
+        <v>25618.272186029932</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>21770.162714919858</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>550A</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>0000111</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -14125,19 +14210,29 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="4"/>
+        <v>0.24656000000000006</v>
+      </c>
+      <c r="C10">
+        <v>20584.884651386306</v>
       </c>
       <c r="D10">
-        <v>20821.210203268449</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>20821.210203268449</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>6940.4034010894829</v>
+        <v>23749.28525913657</v>
+      </c>
+      <c r="E10">
+        <v>28020.462915396176</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>24118.210941973015</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>5E36</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>0001000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -14146,19 +14241,29 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <f t="shared" si="4"/>
+        <v>0.27738000000000007</v>
+      </c>
+      <c r="C11">
+        <v>22672.760919787252</v>
       </c>
       <c r="D11">
-        <v>22919.151002501323</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>22919.151002501323</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>7639.7170008337744</v>
+        <v>25911.348572237566</v>
+      </c>
+      <c r="E11">
+        <v>29962.558418359127</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>26182.222636794646</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>6646</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>0001001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -14167,19 +14272,29 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.20833333333333331</v>
+        <f t="shared" si="4"/>
+        <v>0.30820000000000008</v>
+      </c>
+      <c r="C12">
+        <v>24597.279426216013</v>
       </c>
       <c r="D12">
-        <v>24847.406426417063</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>24847.406426417063</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>8282.4688088056882</v>
+        <v>27807.5263853305</v>
+      </c>
+      <c r="E12">
+        <v>31412.669540452262</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>27939.158450666258</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>6D23</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>0001010</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -14188,19 +14303,29 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.22916666666666666</v>
+        <f t="shared" si="4"/>
+        <v>0.3390200000000001</v>
+      </c>
+      <c r="C13">
+        <v>26344.573970733538</v>
       </c>
       <c r="D13">
-        <v>26591.700346494206</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>26591.700346494206</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>8863.9001154980688</v>
+        <v>29418.361348114489</v>
+      </c>
+      <c r="E13">
+        <v>32346.98549714129</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>29369.973605329771</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>72B9</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>0001011</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -14209,19 +14334,29 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+        <f t="shared" si="4"/>
+        <v>0.36984000000000011</v>
+      </c>
+      <c r="C14">
+        <v>27902.055256107407</v>
       </c>
       <c r="D14">
-        <v>28139.118620823239</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>28139.118620823239</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>9379.7062069410804</v>
+        <v>30727.324114063384</v>
+      </c>
+      <c r="E14">
+        <v>32750.164846247939</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>30459.848072139575</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>76FB</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>0001100</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -14230,19 +14365,29 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
+        <f t="shared" si="4"/>
+        <v>0.40066000000000013</v>
+      </c>
+      <c r="C15">
+        <v>29258.501593986908</v>
       </c>
       <c r="D15">
-        <v>29478.204705895063</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>29478.204705895063</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>9826.0682352983549</v>
+        <v>31720.982953888917</v>
+      </c>
+      <c r="E15">
+        <v>32615.587394006376</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>31198.357313960732</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>79DE</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>0001101</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -14251,19 +14396,29 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.29166666666666663</v>
+        <f t="shared" si="4"/>
+        <v>0.43148000000000014</v>
+      </c>
+      <c r="C16">
+        <v>30404.139757424717</v>
       </c>
       <c r="D16">
-        <v>30599.044476840794</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>30599.044476840794</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>10199.681492280264</v>
+        <v>32389.141583259225</v>
+      </c>
+      <c r="E16">
+        <v>31945.46289846181</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>31579.581413048581</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>7B5B</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>0001110</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -14272,19 +14427,29 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <f t="shared" si="4"/>
+        <v>0.46230000000000016</v>
+      </c>
+      <c r="C17">
+        <v>31330.715397201035</v>
       </c>
       <c r="D17">
-        <v>31493.339628143684</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>31493.339628143684</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>10497.779876047895</v>
+        <v>32724.943790473888</v>
+      </c>
+      <c r="E17">
+        <v>30750.79478530449</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>31602.151324326474</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>7B72</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>0001111</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -14293,19 +14458,29 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="4"/>
+        <v>0.49312000000000017</v>
+      </c>
+      <c r="C18">
+        <v>32031.552514598832</v>
       </c>
       <c r="D18">
-        <v>32154.469111389823</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>32154.469111389823</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>10718.156370463274</v>
+        <v>32724.943790473884</v>
+      </c>
+      <c r="E18">
+        <v>29051.199471924083</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>31269.231925665601</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>7A25</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>0010000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -14314,19 +14489,29 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0.35416666666666663</v>
+        <f t="shared" si="4"/>
+        <v>0.52394000000000018</v>
+      </c>
+      <c r="C19">
+        <v>32501.60156212762</v>
       </c>
       <c r="D19">
-        <v>32577.538155194125</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>32577.538155194125</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>10859.179385064708</v>
+        <v>32389.141583259225</v>
+      </c>
+      <c r="E19">
+        <v>26874.584266378435</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>30588.442470588427</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>777C</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>0010001</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -14335,19 +14520,29 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+        <f t="shared" si="4"/>
+        <v>0.55476000000000014</v>
+      </c>
+      <c r="C20">
+        <v>32737.475825628801</v>
       </c>
       <c r="D20">
-        <v>32759.414504375083</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>32759.414504375083</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>10919.804834791694</v>
+        <v>31720.982953888913</v>
+      </c>
+      <c r="E20">
+        <v>24256.68913016684</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>29571.715969894853</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>7383</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>0010010</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -14356,19 +14551,29 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0.39583333333333331</v>
+        <f t="shared" si="4"/>
+        <v>0.5855800000000001</v>
+      </c>
+      <c r="C21">
+        <v>32737.475825628797</v>
       </c>
       <c r="D21">
-        <v>32698.751610076306</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>32698.751610076306</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>10899.583870025435</v>
+        <v>30727.32411406338</v>
+      </c>
+      <c r="E21">
+        <v>21240.499829050281</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>28235.099922914156</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>6E4B</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>0010011</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -14377,19 +14582,29 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666663</v>
+        <f t="shared" si="4"/>
+        <v>0.61640000000000006</v>
+      </c>
+      <c r="C22">
+        <v>32501.601562127616</v>
       </c>
       <c r="D22">
-        <v>32395.998599143095</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>32395.998599143095</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>10798.666199714366</v>
+        <v>29418.361348114486</v>
+      </c>
+      <c r="E22">
+        <v>17875.542107966012</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>26598.501672736038</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>67E6</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>0010100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -14398,19 +14613,29 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
+        <f t="shared" si="4"/>
+        <v>0.64722000000000002</v>
+      </c>
+      <c r="C23">
+        <v>32031.552514598832</v>
       </c>
       <c r="D23">
-        <v>31853.39694894445</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>31853.39694894445</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>10617.798982981483</v>
+        <v>27807.52638533049</v>
+      </c>
+      <c r="E23">
+        <v>14217.068479664991</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>24685.382459864773</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>606D</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>0010101</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -14419,19 +14644,29 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <f t="shared" si="4"/>
+        <v>0.67803999999999998</v>
+      </c>
+      <c r="C24">
+        <v>31330.715397201027</v>
       </c>
       <c r="D24">
-        <v>31074.96389225882</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>31074.96389225882</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>10358.321297419607</v>
+        <v>25911.348572237548</v>
+      </c>
+      <c r="E24">
+        <v>10325.15097997993</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>22522.404983139499</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>57FA</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>0010110</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -14440,19 +14675,29 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>0.47916666666666663</v>
+        <f t="shared" si="4"/>
+        <v>0.70885999999999993</v>
+      </c>
+      <c r="C25">
+        <v>30404.139757424713</v>
       </c>
       <c r="D25">
-        <v>30066.462675088147</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>30066.462675088147</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>10022.154225029382</v>
+        <v>23749.285259136563</v>
+      </c>
+      <c r="E25">
+        <v>6263.6947866578166</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>20139.039934406363</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>4EAB</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>0010111</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -14461,19 +14706,29 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.73967999999999989</v>
+      </c>
+      <c r="C26">
+        <v>29258.501593986904</v>
       </c>
       <c r="D26">
-        <v>28835.359887600833</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>28835.359887600833</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
-        <v>9611.7866292002782</v>
+        <v>21343.52214135903</v>
+      </c>
+      <c r="E26">
+        <v>2099.3888981079722</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>17567.137544484634</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>449F</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>0011000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -14482,19 +14737,29 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>0.52083333333333337</v>
+        <f t="shared" si="4"/>
+        <v>0.77049999999999985</v>
+      </c>
+      <c r="C27">
+        <v>27902.0552561074</v>
       </c>
       <c r="D27">
-        <v>27390.770184110464</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>27390.770184110464</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>9130.2567280368221</v>
+        <v>18718.745604011034</v>
+      </c>
+      <c r="E27">
+        <v>63434.611101891918</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>36685.137320670117</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>8F4D</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>0011001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -14503,19 +14768,29 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <f t="shared" si="4"/>
+        <v>0.80131999999999981</v>
+      </c>
+      <c r="C28">
+        <v>26344.573970733523</v>
       </c>
       <c r="D28">
-        <v>25743.388801364224</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>25743.388801364224</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
-        <v>8581.1296004547421</v>
+        <v>15901.889406255907</v>
+      </c>
+      <c r="E28">
+        <v>59270.305213342079</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>33838.92286344384</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>842E</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>0011010</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -14524,19 +14799,29 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <f t="shared" si="4"/>
+        <v>0.83213999999999977</v>
+      </c>
+      <c r="C29">
+        <v>24597.279426215995</v>
       </c>
       <c r="D29">
-        <v>23905.412374751926</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>23905.412374751926</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>7968.4707915839754</v>
+        <v>12921.858304498086</v>
+      </c>
+      <c r="E29">
+        <v>55208.849020019952</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>30909.328916911345</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>78BD</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>0011011</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -14545,19 +14830,29 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333326</v>
+        <f t="shared" si="4"/>
+        <v>0.86295999999999973</v>
+      </c>
+      <c r="C30">
+        <v>22672.760919787226</v>
       </c>
       <c r="D30">
-        <v>21890.44863868484</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>21890.44863868484</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>7296.8162128949471</v>
+        <v>9809.2314504679816</v>
+      </c>
+      <c r="E30">
+        <v>51316.931520334911</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>27932.974630196706</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>6D1C</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>0011100</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -14566,19 +14861,29 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>0.60416666666666674</v>
+        <f t="shared" si="4"/>
+        <v>0.89377999999999969</v>
+      </c>
+      <c r="C31">
+        <v>20584.884651386285</v>
       </c>
       <c r="D31">
-        <v>19713.415679691028</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>19713.415679691028</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>6571.1385598970091</v>
+        <v>6595.9486077450847</v>
+      </c>
+      <c r="E31">
+        <v>47658.457892033897</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>24946.430383721756</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>6172</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>0011101</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -14587,19 +14892,29 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
+        <f t="shared" si="4"/>
+        <v>0.92459999999999964</v>
+      </c>
+      <c r="C32">
+        <v>18348.693817370553</v>
       </c>
       <c r="D32">
-        <v>17390.431488122056</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>17390.431488122056</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>5796.8104960406854</v>
+        <v>3314.9824065621501</v>
+      </c>
+      <c r="E32">
+        <v>44293.500170949643</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>21985.725464960782</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>55E1</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>0011110</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -14608,19 +14923,29 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>0.64583333333333337</v>
+        <f t="shared" si="4"/>
+        <v>0.9554199999999996</v>
+      </c>
+      <c r="C33">
+        <v>15980.300223941324</v>
       </c>
       <c r="D33">
-        <v>14938.694626191656</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>14938.694626191656</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
-        <v>4979.5648753972191</v>
+        <v>65533.999999999949</v>
+      </c>
+      <c r="E33">
+        <v>41277.310869833091</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>40930.537031258122</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>9FE2</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>0011111</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -14629,19 +14954,29 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="4"/>
+        <v>0.98623999999999956</v>
+      </c>
+      <c r="C34">
+        <v>13496.76820121086</v>
       </c>
       <c r="D34">
-        <v>12376.356895838304</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>12376.356895838304</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="2"/>
-        <v>4125.4522986127677</v>
+        <v>62219.017593437755</v>
+      </c>
+      <c r="E34">
+        <v>38659.415733621499</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>38125.067176090037</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>94ED</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>0100000</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -14650,19 +14985,29 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <f t="shared" si="4"/>
+        <v>1.0170599999999996</v>
+      </c>
+      <c r="C35">
+        <v>10915.991654312958</v>
       </c>
       <c r="D35">
-        <v>9722.3889491344435</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>9722.3889491344435</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="2"/>
-        <v>3240.7963163781478</v>
+        <v>58938.051392254827</v>
+      </c>
+      <c r="E35">
+        <v>36482.800528075866</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>35445.614524881217</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>8A75</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>0100001</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -14671,19 +15016,29 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
-        <v>0.70833333333333326</v>
+        <f t="shared" si="4"/>
+        <v>1.0478799999999997</v>
+      </c>
+      <c r="C36">
+        <v>8256.5651374063473</v>
       </c>
       <c r="D36">
-        <v>6996.4398362157717</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>6996.4398362157717</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
-        <v>2332.1466120719238</v>
+        <v>55724.768549531931</v>
+      </c>
+      <c r="E36">
+        <v>34783.205214695467</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>32921.512967211245</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>8099</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>0100010</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -14692,19 +15047,29 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
-        <v>0.72916666666666663</v>
+        <f t="shared" si="4"/>
+        <v>1.0786999999999998</v>
+      </c>
+      <c r="C37">
+        <v>5537.6498794859726</v>
       </c>
       <c r="D37">
-        <v>4218.6915305886896</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>4218.6915305886896</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
-        <v>1406.2305101962299</v>
+        <v>52612.141695501829</v>
+      </c>
+      <c r="E37">
+        <v>33588.537101538168</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>30579.442892175324</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>7773</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>0100011</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -14713,19 +15078,29 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f t="shared" si="4"/>
+        <v>1.1095199999999998</v>
+      </c>
+      <c r="C38">
+        <v>2778.8357272889475</v>
       </c>
       <c r="D38">
-        <v>1409.7095088594249</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>1409.7095088594249</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="2"/>
-        <v>469.9031696198083</v>
+        <v>49632.110593744015</v>
+      </c>
+      <c r="E38">
+        <v>32918.412605993617</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>28443.11964234219</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>6F1B</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>0100100</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -14734,19 +15109,29 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
+        <f t="shared" si="4"/>
+        <v>1.1403399999999999</v>
+      </c>
+      <c r="C39">
+        <v>65533.999999999935</v>
       </c>
       <c r="D39">
-        <v>64124.290491140528</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>64124.290491140528</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="2"/>
-        <v>21374.763497046843</v>
+        <v>46815.254395988886</v>
+      </c>
+      <c r="E39">
+        <v>32783.835153752065</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>48377.696516580298</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>BCF9</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>0100101</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -14755,19 +15140,29 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
-        <v>0.79166666666666663</v>
+        <f t="shared" si="4"/>
+        <v>1.17116</v>
+      </c>
+      <c r="C40">
+        <v>62755.164272710928</v>
       </c>
       <c r="D40">
-        <v>61315.308469411262</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>61315.308469411262</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="2"/>
-        <v>20438.43615647042</v>
+        <v>44190.477858640894</v>
+      </c>
+      <c r="E40">
+        <v>33187.014502858714</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>46710.885544736848</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>B676</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>0100110</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -14776,19 +15171,29 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <f t="shared" si="4"/>
+        <v>1.20198</v>
+      </c>
+      <c r="C41">
+        <v>59996.350120513904</v>
       </c>
       <c r="D41">
-        <v>58537.560163784176</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>58537.560163784176</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="2"/>
-        <v>19512.520054594726</v>
+        <v>41784.714740863375</v>
+      </c>
+      <c r="E41">
+        <v>34121.330459547746</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>45300.798440308339</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>B0F4</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>0100111</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -14797,19 +15202,29 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333326</v>
+        <f t="shared" si="4"/>
+        <v>1.2328000000000001</v>
+      </c>
+      <c r="C42">
+        <v>57277.434862593531</v>
       </c>
       <c r="D42">
-        <v>55811.611050865526</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>55811.611050865526</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="2"/>
-        <v>18603.870350288507</v>
+        <v>39622.651427762394</v>
+      </c>
+      <c r="E42">
+        <v>35571.441581640887</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>44157.175957332271</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>AC7D</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>0101000</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -14818,19 +15233,29 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
-        <v>0.85416666666666663</v>
+        <f t="shared" si="4"/>
+        <v>1.2636200000000002</v>
+      </c>
+      <c r="C43">
+        <v>54618.008345686925</v>
       </c>
       <c r="D43">
-        <v>53157.64310416166</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>53157.64310416166</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="2"/>
-        <v>17719.214368053887</v>
+        <v>37726.473614669449</v>
+      </c>
+      <c r="E43">
+        <v>37513.537084603828</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>43286.006348320072</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>A916</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>0101001</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -14839,19 +15264,29 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
+        <f t="shared" si="4"/>
+        <v>1.2944400000000003</v>
+      </c>
+      <c r="C44">
+        <v>52037.231798789013</v>
       </c>
       <c r="D44">
-        <v>50595.305373808311</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>50595.305373808311</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="2"/>
-        <v>16865.101791269437</v>
+        <v>36115.638651885471</v>
+      </c>
+      <c r="E44">
+        <v>39915.727813970065</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>42689.532754881518</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>A6C1</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>0101010</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -14860,19 +15295,29 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
-        <v>0.89583333333333337</v>
+        <f t="shared" si="4"/>
+        <v>1.3252600000000003</v>
+      </c>
+      <c r="C45">
+        <v>49553.699776058565</v>
       </c>
       <c r="D45">
-        <v>48143.5685118779</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>48143.5685118779</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="2"/>
-        <v>16047.856170625966</v>
+        <v>34806.675885936587</v>
+      </c>
+      <c r="E45">
+        <v>42738.569864375546</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>42366.315175456904</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>A57E</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>0101011</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -14881,19 +15326,29 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <f t="shared" si="4"/>
+        <v>1.3560800000000004</v>
+      </c>
+      <c r="C46">
+        <v>47185.306182629341</v>
       </c>
       <c r="D46">
-        <v>45820.584320308932</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>45820.584320308932</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="2"/>
-        <v>15273.528106769643</v>
+        <v>33813.017046111061</v>
+      </c>
+      <c r="E46">
+        <v>45935.712247394295</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>42311.345158711563</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>A547</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>0101100</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -14902,19 +15357,29 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <f t="shared" si="4"/>
+        <v>1.3869000000000005</v>
+      </c>
+      <c r="C47">
+        <v>44949.115348613617</v>
       </c>
       <c r="D47">
-        <v>43643.551361315127</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>43643.551361315127</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="2"/>
-        <v>14547.850453771709</v>
+        <v>33144.858416740768</v>
+      </c>
+      <c r="E47">
+        <v>49454.657973486916</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>42516.210579613769</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>A614</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>0101101</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -14923,19 +15388,29 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>0.95833333333333326</v>
+        <f t="shared" si="4"/>
+        <v>1.4177200000000005</v>
+      </c>
+      <c r="C48">
+        <v>42861.239080212676</v>
       </c>
       <c r="D48">
-        <v>41628.587625248038</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>41628.587625248038</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="2"/>
-        <v>13876.19587508268</v>
+        <v>32809.056209526112</v>
+      </c>
+      <c r="E48">
+        <v>53237.626051117477</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>42969.307113618757</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>A7D9</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>0101110</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -14944,19 +15419,29 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>0.97916666666666663</v>
+        <f t="shared" si="4"/>
+        <v>1.4485400000000006</v>
+      </c>
+      <c r="C49">
+        <v>40936.720573783925</v>
       </c>
       <c r="D49">
-        <v>39790.611198635743</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>39790.611198635743</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="2"/>
-        <v>13263.537066211915</v>
+        <v>32809.056209526119</v>
+      </c>
+      <c r="E49">
+        <v>57222.500249037112</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>43656.092344115714</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>AA88</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>0101111</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -14965,19 +15450,29 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.4793600000000007</v>
+      </c>
+      <c r="C50">
+        <v>39189.426029266404</v>
       </c>
       <c r="D50">
-        <v>38143.229815889506</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>38143.229815889506</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="2"/>
-        <v>12714.409938629835</v>
+        <v>33144.858416740783</v>
+      </c>
+      <c r="E50">
+        <v>61343.849043083712</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>44559.377829696961</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>AE0F</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>0110000</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -14986,19 +15481,29 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>1.0208333333333333</v>
+        <f t="shared" si="4"/>
+        <v>1.5101800000000007</v>
+      </c>
+      <c r="C51">
+        <v>37631.944743892542</v>
       </c>
       <c r="D51">
-        <v>36698.640112399138</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>36698.640112399138</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="2"/>
-        <v>12232.880037466379</v>
+        <v>33813.017046111097</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>23814.987263334548</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>5D06</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>0110001</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -15007,19 +15512,29 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666667</v>
+        <f t="shared" si="4"/>
+        <v>1.5410000000000008</v>
+      </c>
+      <c r="C52">
+        <v>36275.498406013037</v>
       </c>
       <c r="D52">
-        <v>35467.537324911827</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>35467.537324911827</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="2"/>
-        <v>11822.512441637276</v>
+        <v>34806.675885936645</v>
+      </c>
+      <c r="E52">
+        <v>4190.1509569162081</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>25090.775082955297</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>6202</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>0110010</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -15028,19 +15543,29 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
-        <v>1.0624999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.5718200000000009</v>
+      </c>
+      <c r="C53">
+        <v>35129.86024257524</v>
       </c>
       <c r="D53">
-        <v>34459.036107741165</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>34459.036107741165</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="2"/>
-        <v>11486.345369247056</v>
+        <v>36115.638651885551</v>
+      </c>
+      <c r="E53">
+        <v>8311.4997509628265</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>26518.999548474541</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>6796</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>0110011</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -15049,19 +15574,29 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
-        <v>1.0833333333333333</v>
+        <f t="shared" si="4"/>
+        <v>1.602640000000001</v>
+      </c>
+      <c r="C54">
+        <v>34203.284602798929</v>
       </c>
       <c r="D54">
-        <v>33680.603051055543</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>33680.603051055543</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="2"/>
-        <v>11226.867683685181</v>
+        <v>37726.473614669536</v>
+      </c>
+      <c r="E54">
+        <v>12296.373948882452</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>28075.37738878364</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>6DAB</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>0110100</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -15070,19 +15605,29 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
-        <v>1.1041666666666667</v>
+        <f t="shared" si="4"/>
+        <v>1.633460000000001</v>
+      </c>
+      <c r="C55">
+        <v>33502.447485401135</v>
       </c>
       <c r="D55">
-        <v>33138.001400856905</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>33138.001400856905</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="2"/>
-        <v>11046.000466952302</v>
+        <v>39622.651427762496</v>
+      </c>
+      <c r="E55">
+        <v>16079.342026513032</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>29734.813646558887</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>7426</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>0110101</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -15091,19 +15636,29 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
-        <v>1.125</v>
+        <f t="shared" si="4"/>
+        <v>1.6642800000000011</v>
+      </c>
+      <c r="C56">
+        <v>33032.398437872369</v>
       </c>
       <c r="D56">
-        <v>32835.248389923698</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>32835.248389923698</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="2"/>
-        <v>10945.082796641233</v>
+        <v>41784.714740863506</v>
+      </c>
+      <c r="E56">
+        <v>19598.287752605676</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>31471.800310447183</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>7AEF</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>0110110</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -15112,19 +15667,29 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
-        <v>1.1458333333333333</v>
+        <f t="shared" si="4"/>
+        <v>1.6951000000000012</v>
+      </c>
+      <c r="C57">
+        <v>32796.524174371196</v>
       </c>
       <c r="D57">
-        <v>32774.585495624917</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>32774.585495624917</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="2"/>
-        <v>10924.861831874972</v>
+        <v>44190.477858641025</v>
+      </c>
+      <c r="E57">
+        <v>22795.43013562444</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>33260.810722878887</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>81EC</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>0110111</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -15133,19 +15698,29 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
-        <v>1.1666666666666665</v>
+        <f t="shared" si="4"/>
+        <v>1.7259200000000012</v>
+      </c>
+      <c r="C58">
+        <v>32796.524174371203</v>
       </c>
       <c r="D58">
-        <v>32956.461844805875</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>32956.461844805875</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="2"/>
-        <v>10985.487281601958</v>
+        <v>46815.254395989032</v>
+      </c>
+      <c r="E58">
+        <v>25618.272186029932</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>35076.68358546339</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>8904</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>0111000</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -15154,19 +15729,29 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
-        <v>1.1875</v>
+        <f t="shared" si="4"/>
+        <v>1.7567400000000013</v>
+      </c>
+      <c r="C59">
+        <v>33032.398437872391</v>
       </c>
       <c r="D59">
-        <v>33379.53088861017</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>33379.53088861017</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="2"/>
-        <v>11126.510296203391</v>
+        <v>49632.110593744153</v>
+      </c>
+      <c r="E59">
+        <v>28020.462915396176</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>36894.990649004241</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>901E</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>0111001</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -15175,19 +15760,29 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
-        <v>1.2083333333333335</v>
+        <f t="shared" si="4"/>
+        <v>1.7875600000000014</v>
+      </c>
+      <c r="C60">
+        <v>33502.447485401179</v>
       </c>
       <c r="D60">
-        <v>34040.660371856298</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>34040.660371856298</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="2"/>
-        <v>11346.886790618766</v>
+        <v>52612.141695501989</v>
+      </c>
+      <c r="E60">
+        <v>29962.558418359127</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>38692.382533087432</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>9724</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>0111010</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -15196,19 +15791,29 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
-        <v>1.2291666666666665</v>
+        <f t="shared" si="4"/>
+        <v>1.8183800000000014</v>
+      </c>
+      <c r="C61">
+        <v>34203.28460279898</v>
       </c>
       <c r="D61">
-        <v>34934.95552315918</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>34934.95552315918</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="2"/>
-        <v>11644.985174386393</v>
+        <v>55724.768549532098</v>
+      </c>
+      <c r="E61">
+        <v>31412.669540452262</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>40446.907564261113</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>9DFE</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>0111011</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -15217,19 +15822,29 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
+        <f t="shared" si="4"/>
+        <v>1.8492000000000015</v>
+      </c>
+      <c r="C62">
+        <v>35129.860242575291</v>
       </c>
       <c r="D62">
-        <v>36055.795294104901</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
-        <v>36055.795294104901</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="2"/>
-        <v>12018.5984313683</v>
+        <v>58938.05139225498</v>
+      </c>
+      <c r="E62">
+        <v>32346.98549714129</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>42138.299043990519</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>A49A</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>0111100</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -15238,19 +15853,29 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
-        <v>1.2708333333333333</v>
+        <f t="shared" si="4"/>
+        <v>1.8800200000000016</v>
+      </c>
+      <c r="C63">
+        <v>36275.498406013088</v>
       </c>
       <c r="D63">
-        <v>37394.881379176702</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="1"/>
-        <v>37394.881379176702</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="2"/>
-        <v>12464.960459725567</v>
+        <v>62219.017593437937</v>
+      </c>
+      <c r="E63">
+        <v>32750.164846247939</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>43748.22694856632</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>AAE4</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>0111101</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -15259,19 +15884,29 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
-        <v>1.2916666666666667</v>
+        <f t="shared" si="4"/>
+        <v>1.9108400000000016</v>
+      </c>
+      <c r="C64">
+        <v>37631.944743892593</v>
       </c>
       <c r="D64">
-        <v>38942.299653505732</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="1"/>
-        <v>38942.299653505732</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="2"/>
-        <v>12980.766551168577</v>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>32615.587394006376</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>23415.844045966322</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>5B77</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>0111110</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -15280,19 +15915,29 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
-        <v>1.3124999999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.9416600000000017</v>
+      </c>
+      <c r="C65">
+        <v>39189.426029266448</v>
       </c>
       <c r="D65">
-        <v>40686.593573582846</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="1"/>
-        <v>40686.593573582846</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="2"/>
-        <v>13562.197857860949</v>
+        <v>3314.9824065621897</v>
+      </c>
+      <c r="E65">
+        <v>31945.46289846181</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>24816.623778096819</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>60F0</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>0111111</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -15301,19 +15946,29 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="4"/>
+        <v>1.9724800000000018</v>
+      </c>
+      <c r="C66">
+        <v>40936.720573783954</v>
       </c>
       <c r="D66">
-        <v>42614.848997498571</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="1"/>
-        <v>42614.848997498571</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="2"/>
-        <v>14204.949665832857</v>
+        <v>6595.9486077451238</v>
+      </c>
+      <c r="E66">
+        <v>30750.79478530449</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>26094.487988944526</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>65EE</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -15322,547 +15977,277 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B111" si="4">1/48000*A67 *1000</f>
-        <v>1.3541666666666667</v>
+        <f t="shared" si="4"/>
+        <v>2.0033000000000016</v>
+      </c>
+      <c r="C67">
+        <v>42861.239080212719</v>
       </c>
       <c r="D67">
-        <v>44712.78979673142</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G111" si="5">F67+E67+D67</f>
-        <v>44712.78979673142</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H111" si="6">G67/3</f>
-        <v>14904.263265577139</v>
+        <v>9809.2314504680216</v>
+      </c>
+      <c r="E67">
+        <v>29051.199471924083</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F75" si="5">(E67+D67+C67)/3</f>
+        <v>27240.55666753494</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G75" si="6">DEC2HEX(F67,4)</f>
+        <v>6A68</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H75" si="7">DEC2BIN(A67, 7)</f>
+        <v>1000001</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A111" si="7">A67+1</f>
+        <f t="shared" ref="A68:A75" si="8">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
-        <v>1.375</v>
+        <f t="shared" ref="B68:B75" si="9">B67+0.03082</f>
+        <v>2.0341200000000015</v>
+      </c>
+      <c r="C68">
+        <v>44949.115348613646</v>
       </c>
       <c r="D68">
-        <v>46964.8835516088</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="5"/>
-        <v>46964.8835516088</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="6"/>
-        <v>15654.9611838696</v>
+        <v>12921.85830449811</v>
+      </c>
+      <c r="E68">
+        <v>26874.584266378435</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>28248.519306496732</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="6"/>
+        <v>6E58</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="7"/>
+        <v>1000010</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="9"/>
+        <v>2.0649400000000013</v>
+      </c>
+      <c r="C69">
+        <v>47185.306182629341</v>
+      </c>
+      <c r="D69">
+        <v>15901.889406255932</v>
+      </c>
+      <c r="E69">
+        <v>24256.68913016684</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>29114.62823968404</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="6"/>
+        <v>71BA</v>
+      </c>
+      <c r="H69" t="str">
         <f t="shared" si="7"/>
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="4"/>
-        <v>1.3958333333333333</v>
-      </c>
-      <c r="D69">
-        <v>49354.456547907845</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="5"/>
-        <v>49354.456547907845</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="6"/>
-        <v>16451.485515969282</v>
+        <v>1000011</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="9"/>
+        <v>2.0957600000000012</v>
+      </c>
+      <c r="C70">
+        <v>49553.699776058573</v>
+      </c>
+      <c r="D70">
+        <v>18718.745604011056</v>
+      </c>
+      <c r="E70">
+        <v>21240.499829050281</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>29837.64840303997</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="6"/>
+        <v>748D</v>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" si="7"/>
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="4"/>
-        <v>1.4166666666666665</v>
-      </c>
-      <c r="D70">
-        <v>51863.817223202022</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="5"/>
-        <v>51863.817223202022</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="6"/>
-        <v>17287.939074400674</v>
+        <v>1000100</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="9"/>
+        <v>2.126580000000001</v>
+      </c>
+      <c r="C71">
+        <v>52037.231798789006</v>
+      </c>
+      <c r="D71">
+        <v>21343.522141359052</v>
+      </c>
+      <c r="E71">
+        <v>17875.542107966012</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>30418.765349371359</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="6"/>
+        <v>76D2</v>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" si="7"/>
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="4"/>
-        <v>1.4375</v>
-      </c>
-      <c r="D71">
-        <v>54474.387148999464</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="5"/>
-        <v>54474.387148999464</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="6"/>
-        <v>18158.129049666488</v>
+        <v>1000101</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="9"/>
+        <v>2.1574000000000009</v>
+      </c>
+      <c r="C72">
+        <v>54618.008345686889</v>
+      </c>
+      <c r="D72">
+        <v>23749.28525913657</v>
+      </c>
+      <c r="E72">
+        <v>14217.068479664991</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>30861.454028162814</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="6"/>
+        <v>788D</v>
+      </c>
+      <c r="H72" t="str">
         <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="4"/>
-        <v>1.4583333333333333</v>
-      </c>
-      <c r="D72">
-        <v>57166.838578927665</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="5"/>
-        <v>57166.838578927665</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="6"/>
-        <v>19055.612859642555</v>
+        <v>1000110</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="9"/>
+        <v>2.1882200000000007</v>
+      </c>
+      <c r="C73">
+        <v>57277.434862593494</v>
+      </c>
+      <c r="D73">
+        <v>25911.348572237566</v>
+      </c>
+      <c r="E73">
+        <v>10325.15097997993</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>31171.311471603665</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="6"/>
+        <v>79C3</v>
+      </c>
+      <c r="H73" t="str">
         <f t="shared" si="7"/>
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="4"/>
-        <v>1.4791666666666665</v>
-      </c>
-      <c r="D73">
-        <v>59921.237544605261</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="5"/>
-        <v>59921.237544605261</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="6"/>
-        <v>19973.745848201754</v>
+        <v>1000111</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="9"/>
+        <v>2.2190400000000006</v>
+      </c>
+      <c r="C74">
+        <v>59996.350120513838</v>
+      </c>
+      <c r="D74">
+        <v>27807.5263853305</v>
+      </c>
+      <c r="E74">
+        <v>6263.6947866578166</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>31355.857097500721</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>7A7B</v>
+      </c>
+      <c r="H74" t="str">
         <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="D74">
-        <v>62717.19143976982</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="5"/>
-        <v>62717.19143976982</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="6"/>
-        <v>20905.730479923273</v>
+        <v>1001000</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="9"/>
+        <v>2.2498600000000004</v>
+      </c>
+      <c r="C75">
+        <v>62755.164272710834</v>
+      </c>
+      <c r="D75">
+        <v>29418.361348114489</v>
+      </c>
+      <c r="E75">
+        <v>2099.3888981079722</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>31424.304839644432</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>7AC0</v>
+      </c>
+      <c r="H75" t="str">
         <f t="shared" si="7"/>
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="4"/>
-        <v>1.5208333333333333</v>
-      </c>
-      <c r="D75">
-        <v>65533.999999999702</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="5"/>
-        <v>65533.999999999702</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="6"/>
-        <v>21844.666666666566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="7"/>
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="4"/>
-        <v>1.5416666666666667</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="4"/>
-        <v>1.5624999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="7"/>
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="4"/>
-        <v>1.5833333333333333</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="4"/>
-        <v>1.6041666666666667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="4"/>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="7"/>
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="4"/>
-        <v>1.6458333333333333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666665</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="7"/>
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="4"/>
-        <v>1.6875</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="7"/>
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="4"/>
-        <v>1.7083333333333333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="7"/>
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="4"/>
-        <v>1.7291666666666665</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="7"/>
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="4"/>
-        <v>1.7708333333333333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="4"/>
-        <v>1.7916666666666667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="7"/>
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="4"/>
-        <v>1.8124999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="4"/>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="4"/>
-        <v>1.8541666666666665</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="4"/>
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="7"/>
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="4"/>
-        <v>1.8958333333333333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="4"/>
-        <v>1.9166666666666665</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="7"/>
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="4"/>
-        <v>1.9375</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="7"/>
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="4"/>
-        <v>1.9583333333333333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="4"/>
-        <v>1.9791666666666663</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="7"/>
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="4"/>
-        <v>2.020833333333333</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="4"/>
-        <v>2.0416666666666665</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="4"/>
-        <v>2.0625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="4"/>
-        <v>2.0833333333333335</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="7"/>
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="4"/>
-        <v>2.1041666666666665</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="4"/>
-        <v>2.1249999999999996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <f t="shared" si="7"/>
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="4"/>
-        <v>2.1458333333333335</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f t="shared" si="7"/>
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="4"/>
-        <v>2.1666666666666665</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f t="shared" si="7"/>
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="4"/>
-        <v>2.1874999999999996</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f t="shared" si="7"/>
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="4"/>
-        <v>2.2083333333333335</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <f t="shared" si="7"/>
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <f t="shared" si="4"/>
-        <v>2.2291666666666665</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <f t="shared" si="4"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <f t="shared" si="7"/>
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <f t="shared" si="4"/>
-        <v>2.2708333333333335</v>
+        <v>1001001</v>
       </c>
     </row>
   </sheetData>

--- a/Wave Math/Tone_calculator.xlsx
+++ b/Wave Math/Tone_calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6795" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Base tone" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,10 @@
     <t>C5</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Total (Hex)</t>
   </si>
   <si>
-    <t>Total (Hex)</t>
+    <t>Total/3</t>
   </si>
 </sst>
 </file>
@@ -3132,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -4750,7 +4750,7 @@
   <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13919,8 +13919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13948,10 +13948,10 @@
         <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>35</v>

--- a/Wave Math/Tone_calculator.xlsx
+++ b/Wave Math/Tone_calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Base tone" sheetId="1" r:id="rId1"/>
@@ -3132,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12370,10 +12370,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12465,11 +12465,11 @@
         <v>0.127877161684506</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F50" si="1">IF(E3&gt;=0, E3*32767, E3*32767+32767*2)</f>
+        <f t="shared" ref="F3:F66" si="1">IF(E3&gt;=0, E3*32767, E3*32767+32767*2)</f>
         <v>4190.1509569162081</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G50" si="2">DEC2HEX(F3,4)</f>
+        <f t="shared" ref="G3:G66" si="2">DEC2HEX(F3,4)</f>
         <v>105E</v>
       </c>
       <c r="H3" t="str">
@@ -12479,15 +12479,15 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A50" si="4">A3+1</f>
+        <f t="shared" ref="A4:A67" si="4">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B51" si="5">B3+0.03082</f>
+        <f t="shared" ref="B4:B67" si="5">B3+0.03082</f>
         <v>6.164E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D51" si="6">D3+360/49</f>
+        <f t="shared" ref="D4:D67" si="6">D3+360/49</f>
         <v>14.693877551020408</v>
       </c>
       <c r="E4">
@@ -13908,6 +13908,755 @@
       <c r="H50" t="str">
         <f t="shared" si="3"/>
         <v>0110000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="5"/>
+        <v>1.5101800000000007</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:E74" si="7">SIN(RADIANS(D51))</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:F74" si="8">IF(E51&gt;=0, E51*32767, E51*32767+32767*2)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" ref="H51:H74" si="9">DEC2BIN(A51, 7)</f>
+        <v>0110001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="5"/>
+        <v>1.5410000000000008</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="6"/>
+        <v>7.3469387755102042</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="7"/>
+        <v>0.127877161684506</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="8"/>
+        <v>4190.1509569162081</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>105E</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="9"/>
+        <v>0110010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="5"/>
+        <v>1.5718200000000009</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="6"/>
+        <v>14.693877551020408</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="7"/>
+        <v>0.25365458390950735</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="8"/>
+        <v>8311.4997509628265</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>2077</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="9"/>
+        <v>0110011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="5"/>
+        <v>1.602640000000001</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="6"/>
+        <v>22.040816326530614</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="7"/>
+        <v>0.37526700487937414</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>12296.373948882452</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>3008</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="9"/>
+        <v>0110100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="5"/>
+        <v>1.633460000000001</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="6"/>
+        <v>29.387755102040817</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="7"/>
+        <v>0.49071755200393785</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="8"/>
+        <v>16079.342026513032</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>3ECF</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="9"/>
+        <v>0110101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="5"/>
+        <v>1.6642800000000011</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="6"/>
+        <v>36.734693877551024</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="7"/>
+        <v>0.5981105304912161</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="8"/>
+        <v>19598.287752605676</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>4C8E</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="9"/>
+        <v>0110110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="5"/>
+        <v>1.6951000000000012</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="6"/>
+        <v>44.081632653061227</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="7"/>
+        <v>0.69568255060348638</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="8"/>
+        <v>22795.43013562444</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>590B</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="9"/>
+        <v>0110111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>1.7259200000000012</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="6"/>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="7"/>
+        <v>0.7818314824680298</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="8"/>
+        <v>25618.272186029932</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>6412</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="9"/>
+        <v>0111000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>1.7567400000000013</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="6"/>
+        <v>58.775510204081634</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="7"/>
+        <v>0.85514276300534608</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="8"/>
+        <v>28020.462915396176</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>6D74</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="9"/>
+        <v>0111001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="5"/>
+        <v>1.7875600000000014</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="6"/>
+        <v>66.122448979591837</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="7"/>
+        <v>0.9144126230158125</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="8"/>
+        <v>29962.558418359127</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>750A</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="9"/>
+        <v>0111010</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="5"/>
+        <v>1.8183800000000014</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="6"/>
+        <v>73.469387755102048</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="7"/>
+        <v>0.95866785303666069</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>31412.669540452262</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>7AB4</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="9"/>
+        <v>0111011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="5"/>
+        <v>1.8492000000000015</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="6"/>
+        <v>80.816326530612258</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="7"/>
+        <v>0.98718178341445018</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="8"/>
+        <v>32346.98549714129</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>7E5A</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="9"/>
+        <v>0111100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="5"/>
+        <v>1.8800200000000016</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="6"/>
+        <v>88.163265306122469</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="7"/>
+        <v>0.99948621620068789</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="8"/>
+        <v>32750.164846247939</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>7FEE</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="9"/>
+        <v>0111101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="5"/>
+        <v>1.9108400000000016</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="6"/>
+        <v>95.510204081632679</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="7"/>
+        <v>0.99537911294919812</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="8"/>
+        <v>32615.587394006376</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>7F67</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="9"/>
+        <v>0111110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="5"/>
+        <v>1.9416600000000017</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="6"/>
+        <v>102.85714285714289</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="7"/>
+        <v>0.97492791218182351</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="8"/>
+        <v>31945.46289846181</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>7CC9</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="9"/>
+        <v>0111111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="5"/>
+        <v>1.9724800000000018</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="6"/>
+        <v>110.2040816326531</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="7"/>
+        <v>0.93846842204976011</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="8"/>
+        <v>30750.79478530449</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>781E</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="9"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="5"/>
+        <v>2.0033000000000016</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="6"/>
+        <v>117.55102040816331</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="7"/>
+        <v>0.88659930637299977</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="8"/>
+        <v>29051.199471924083</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G76" si="10">DEC2HEX(F67,4)</f>
+        <v>717B</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="9"/>
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A76" si="11">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B76" si="12">B67+0.03082</f>
+        <v>2.0341200000000015</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D76" si="13">D67+360/49</f>
+        <v>124.89795918367352</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="7"/>
+        <v>0.82017225459695531</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>26874.584266378435</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="10"/>
+        <v>68FA</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="9"/>
+        <v>1000010</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="12"/>
+        <v>2.0649400000000013</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="13"/>
+        <v>132.24489795918373</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>0.74027799707531483</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>24256.68913016684</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="10"/>
+        <v>5EC0</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="9"/>
+        <v>1000011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="12"/>
+        <v>2.0957600000000012</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="13"/>
+        <v>139.59183673469394</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>0.64822839530778775</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>21240.499829050281</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="10"/>
+        <v>52F8</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="9"/>
+        <v>1000100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="12"/>
+        <v>2.126580000000001</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="13"/>
+        <v>146.93877551020415</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>0.5455349012105476</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>17875.542107966012</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="10"/>
+        <v>45D3</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="9"/>
+        <v>1000101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="12"/>
+        <v>2.1574000000000009</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="13"/>
+        <v>154.28571428571436</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>0.43388373911755701</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>14217.068479664991</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="10"/>
+        <v>3789</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="9"/>
+        <v>1000110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="12"/>
+        <v>2.1882200000000007</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="13"/>
+        <v>161.63265306122457</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>0.31510821802361916</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>10325.15097997993</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="10"/>
+        <v>2855</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="9"/>
+        <v>1000111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="12"/>
+        <v>2.2190400000000006</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="13"/>
+        <v>168.97959183673478</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>0.19115862870137079</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>6263.6947866578166</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="10"/>
+        <v>1877</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="9"/>
+        <v>1001000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="12"/>
+        <v>2.2498600000000004</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="13"/>
+        <v>176.32653061224499</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75:E76" si="14">SIN(RADIANS(D75))</f>
+        <v>6.4070219980711454E-2</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75:F76" si="15">IF(E75&gt;=0, E75*32767, E75*32767+32767*2)</f>
+        <v>2099.3888981079722</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="10"/>
+        <v>0833</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" ref="H75:H76" si="16">DEC2BIN(A75, 7)</f>
+        <v>1001001</v>
       </c>
     </row>
   </sheetData>
